--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9460871D-2159-4629-9026-C54BD97DD78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD7D10-0468-4ABA-8A8E-5760EEBB888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -8463,8 +8463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073A11A-77BF-49D7-89C7-360306EC7745}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9751,7 +9751,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10978,7 +10978,7 @@
   <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12266,7 +12266,7 @@
   <dimension ref="A1:AD73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15149,8 +15149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E78ED0-64E0-4567-9D45-58470B79DF18}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17667,8 +17667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E139F-BBA8-45E6-8ABD-24B09CD87AA1}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17806,7 +17806,7 @@
         <v>17.926272000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>($B$2*C3)/($A$2+C3)</f>
         <v>0.42890086668912503</v>
       </c>
       <c r="E3">
@@ -18131,7 +18131,7 @@
         <v>53.875792000000004</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>($B$2*C8)/($A$2+C8)</f>
         <v>1.0225121712170262</v>
       </c>
       <c r="E8">
@@ -18387,7 +18387,7 @@
         <v>79.151232817838547</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>($B$2*E12)/($B$6+E12)</f>
         <v>1.3115613928324668</v>
       </c>
       <c r="G12">

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD7D10-0468-4ABA-8A8E-5760EEBB888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185677A-7BAA-41DB-AF5B-598F5B2F4187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" firstSheet="3" activeTab="5" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="24">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Pressure (Bar)</t>
+  </si>
+  <si>
+    <t>NTC M12</t>
   </si>
 </sst>
 </file>
@@ -498,58 +501,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.21480527390044768</c:v>
+                  <c:v>0.14767862580655777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26236252251093384</c:v>
+                  <c:v>0.18037423422626703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32099072802197798</c:v>
+                  <c:v>0.22068112551510985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39403170072115379</c:v>
+                  <c:v>0.27089679424579322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48432530602905843</c:v>
+                  <c:v>0.33297364789497769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59428341384863126</c:v>
+                  <c:v>0.40856984702093402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72580250272034808</c:v>
+                  <c:v>0.49898922062023926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87907998485388461</c:v>
+                  <c:v>0.60436748958704567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0516094420600857</c:v>
+                  <c:v>0.72298149141630885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2368177307310617</c:v>
+                  <c:v>0.85031218987760493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4276792936101372</c:v>
+                  <c:v>0.98152951435696933</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6107598607888629</c:v>
+                  <c:v>1.1073974042923433</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7763220205209154</c:v>
+                  <c:v>1.2212213891081294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9164596273291925</c:v>
+                  <c:v>1.3175659937888198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0277292745113189</c:v>
+                  <c:v>1.3940638762265316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1109189223374654</c:v>
+                  <c:v>1.4512567591070076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1697455488907931</c:v>
+                  <c:v>1.4917000648624201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2092430803273371</c:v>
+                  <c:v>1.5188546177250442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,58 +1120,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.26003702511268512</c:v>
+                  <c:v>0.18079914936482172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32026077451592755</c:v>
+                  <c:v>0.22325695313775648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39290438965724589</c:v>
+                  <c:v>0.27476871320437335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48514150943396228</c:v>
+                  <c:v>0.34064836653786318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59248387963460503</c:v>
+                  <c:v>0.41799270245936598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7251917367639783</c:v>
+                  <c:v>0.51463371812316205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88044058744993325</c:v>
+                  <c:v>0.62914612816027971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0535060381768602</c:v>
+                  <c:v>0.75868985832515068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2436000657246138</c:v>
+                  <c:v>0.90332995166199215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4312919463087248</c:v>
+                  <c:v>1.048617086662569</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6173548757569429</c:v>
+                  <c:v>1.195133758944587</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7794117647058822</c:v>
+                  <c:v>1.3248175182481754</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9205491684339768</c:v>
+                  <c:v>1.4393675757068762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0318295739348371</c:v>
+                  <c:v>1.5307604279910736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1140803956567007</c:v>
+                  <c:v>1.5989307996268811</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1721670949565</c:v>
+                  <c:v>1.6473944972439256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2105530474040629</c:v>
+                  <c:v>1.6795681740061021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.234842420191085</c:v>
+                  <c:v>1.699987391132245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,61 +1745,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.23648208469055376</c:v>
+                  <c:v>0.16258143322475571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26776779987171262</c:v>
+                  <c:v>0.18409036241180243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29561195445920302</c:v>
+                  <c:v>0.20323321869070207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32511682242990653</c:v>
+                  <c:v>0.22351781542056073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38383685800604223</c:v>
+                  <c:v>0.26388783987915404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45822692977365054</c:v>
+                  <c:v>0.31503101421938473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55189185470555857</c:v>
+                  <c:v>0.37942565011007157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68924050632911382</c:v>
+                  <c:v>0.47385284810126577</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83316267832489643</c:v>
+                  <c:v>0.5727993413483663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0032200811359027</c:v>
+                  <c:v>0.689713805780933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.205152574156154</c:v>
+                  <c:v>0.8285423947323558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4115004122011541</c:v>
+                  <c:v>0.97040653338829341</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6020410344090616</c:v>
+                  <c:v>1.1014032111562297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7792581986505569</c:v>
+                  <c:v>1.2232400115722577</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9170157289435108</c:v>
+                  <c:v>1.3179483136486636</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0367283376719971</c:v>
+                  <c:v>1.4002507321494979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1083050455176671</c:v>
+                  <c:v>1.4494597187933962</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.159854435019374</c:v>
+                  <c:v>1.4848999240758196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1948712255772644</c:v>
+                  <c:v>1.5089739675843694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,139 +2528,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>3.3296070169404078E-2</c:v>
+                  <c:v>2.2891048241465303E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6527280858676209E-2</c:v>
+                  <c:v>2.5112505590339892E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0131343944676226E-2</c:v>
+                  <c:v>2.7590298961964906E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4199790347424266E-2</c:v>
+                  <c:v>3.0387355863854184E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8790669788360531E-2</c:v>
+                  <c:v>3.3543585479497866E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3928880779279792E-2</c:v>
+                  <c:v>3.7076105535754855E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9731850755569395E-2</c:v>
+                  <c:v>4.1065647394453959E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6188961534116575E-2</c:v>
+                  <c:v>4.5504911054705138E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3442997888810688E-2</c:v>
+                  <c:v>5.0492061048557343E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1753890914189567E-2</c:v>
+                  <c:v>5.6205800003505321E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1249162373832543E-2</c:v>
+                  <c:v>6.2733799132009868E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1020477371228538</c:v>
+                  <c:v>7.0157819271961991E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11440734589301252</c:v>
+                  <c:v>7.8655050301446108E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12891898287877954</c:v>
+                  <c:v>8.8631800729160923E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1458689468383374</c:v>
+                  <c:v>0.10028490095135696</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16522252191503708</c:v>
+                  <c:v>0.113590483816588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18767511674449633</c:v>
+                  <c:v>0.12902664276184123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21236816084377058</c:v>
+                  <c:v>0.14600311058009227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24176413255360624</c:v>
+                  <c:v>0.16621284113060431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27798340778557751</c:v>
+                  <c:v>0.19111359285258456</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31782363977485922</c:v>
+                  <c:v>0.21850375234521571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36311087354917532</c:v>
+                  <c:v>0.24963872556505801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41739614243323436</c:v>
+                  <c:v>0.28695984792284862</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4790017211703958</c:v>
+                  <c:v>0.32931368330464716</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55189185470555857</c:v>
+                  <c:v>0.37942565011007157</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63291819611955957</c:v>
+                  <c:v>0.43513125983219725</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72366270430906388</c:v>
+                  <c:v>0.49751810921248141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.823853635942566</c:v>
+                  <c:v>0.56639937471051416</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93390564826700884</c:v>
+                  <c:v>0.64206013318356847</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0516094420600857</c:v>
+                  <c:v>0.72298149141630885</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1753286014721345</c:v>
+                  <c:v>0.80803841351209238</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.301453488372093</c:v>
+                  <c:v>0.89474927325581388</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.423577621240856</c:v>
+                  <c:v>0.97870961460308847</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5544080604534005</c:v>
+                  <c:v>1.0686555415617129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6671046287367406</c:v>
+                  <c:v>1.146134432256509</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7752313716184147</c:v>
+                  <c:v>1.2204715679876601</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8716104392106938</c:v>
+                  <c:v>1.2867321769573519</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9550085487277482</c:v>
+                  <c:v>1.3440683772503268</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0253218884120172</c:v>
+                  <c:v>1.3924087982832618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0832513230659448</c:v>
+                  <c:v>1.4322352846078372</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1298263193052769</c:v>
+                  <c:v>1.4642555945223779</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1634635829761382</c:v>
+                  <c:v>1.4873812132960951</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.190118909585864</c:v>
+                  <c:v>1.5057067503402815</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2109198598520661</c:v>
+                  <c:v>1.5200074036482953</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.226877659360277</c:v>
+                  <c:v>1.5309783908101906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,121 +3428,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.5600463877673745E-2</c:v>
+                  <c:v>2.4475318915900698E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9749163999085395E-2</c:v>
+                  <c:v>2.732755024937121E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4485294117647053E-2</c:v>
+                  <c:v>3.0583639705882352E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9895975588938199E-2</c:v>
+                  <c:v>3.4303483217395014E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6128181121797599E-2</c:v>
+                  <c:v>3.8588124521235855E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3354984093319175E-2</c:v>
+                  <c:v>4.3556551564156935E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1711341803532683E-2</c:v>
+                  <c:v>4.9301547489928724E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1232469180819888E-2</c:v>
+                  <c:v>5.5847322561813677E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2191119421729792E-2</c:v>
+                  <c:v>6.3381394602439231E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10511339991677068</c:v>
+                  <c:v>7.2265462442779843E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1202237179222282</c:v>
+                  <c:v>8.2653806071531888E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1373985406247438</c:v>
+                  <c:v>9.446149667951137E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15727780522803267</c:v>
+                  <c:v>0.10812849109427246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18135304725452672</c:v>
+                  <c:v>0.12468021998748713</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20997960719094005</c:v>
+                  <c:v>0.14436097994377128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24271198659496535</c:v>
+                  <c:v>0.16686449078403867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28064774392964115</c:v>
+                  <c:v>0.19294532395162828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32259470216854236</c:v>
+                  <c:v>0.22178385774087286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3700699939135727</c:v>
+                  <c:v>0.25442312081558127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.43148366825292123</c:v>
+                  <c:v>0.29664502192388331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50588465907164415</c:v>
+                  <c:v>0.34779570311175534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58626383405604809</c:v>
+                  <c:v>0.4030563859135331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6754615867859769</c:v>
+                  <c:v>0.46437984091535911</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77492194533300141</c:v>
+                  <c:v>0.53275883741643848</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88449417149601961</c:v>
+                  <c:v>0.60808974290351347</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0017191764686768</c:v>
+                  <c:v>0.68868193382221532</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1256039521418886</c:v>
+                  <c:v>0.77385271709754844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.254327673502039</c:v>
+                  <c:v>0.86235027553265187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3837765957446806</c:v>
+                  <c:v>0.95134640957446792</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5084450402144771</c:v>
+                  <c:v>1.0370559651474529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6270031886443119</c:v>
+                  <c:v>1.1185646921929644</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7375851353652305</c:v>
+                  <c:v>1.1945897805635959</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8374585234342597</c:v>
+                  <c:v>1.2632527348610536</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9237072779559783</c:v>
+                  <c:v>1.3225487535947351</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9976985402728298</c:v>
+                  <c:v>1.3734177464375705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0594276320203981</c:v>
+                  <c:v>1.4158564970140235</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1099386549915997</c:v>
+                  <c:v>1.4505828253067248</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1499242943663579</c:v>
+                  <c:v>1.478072952376871</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1813657245300986</c:v>
+                  <c:v>1.4996889356144427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4218,82 +4221,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.26776439318198442</c:v>
+                  <c:v>0.18408802031261431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42588167627488838</c:v>
+                  <c:v>0.29279365243898575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.566897089825531</c:v>
+                  <c:v>0.38974174925505251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69343990125757649</c:v>
+                  <c:v>0.47673993211458382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80762666093825219</c:v>
+                  <c:v>0.55524332939504839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91118036965037696</c:v>
+                  <c:v>0.62643650413463414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0055178856557141</c:v>
+                  <c:v>0.69129354638830354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0918150268846707</c:v>
+                  <c:v>0.75062283098321103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1710557378347966</c:v>
+                  <c:v>0.80510081976142256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2440696934358426</c:v>
+                  <c:v>0.85529791423714185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3115613928324668</c:v>
+                  <c:v>0.90169845757232092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3741329083065537</c:v>
+                  <c:v>0.94471637446075563</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4323018470450584</c:v>
+                  <c:v>0.9847075198434776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.486515661208865</c:v>
+                  <c:v>1.0219795170810948</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5371631440553475</c:v>
+                  <c:v>1.0567996615380515</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5845837371888376</c:v>
+                  <c:v>1.0894013193173258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6290751202077463</c:v>
+                  <c:v>1.1199891451428257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6708994415171088</c:v>
+                  <c:v>1.1487433660430124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7102884659126212</c:v>
+                  <c:v>1.1758233203149271</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7474478524555805</c:v>
+                  <c:v>1.2013703985632116</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.782560729375362</c:v>
+                  <c:v>1.2255105014455614</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8157906971773714</c:v>
+                  <c:v>1.2483561043094429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8472843638854988</c:v>
+                  <c:v>1.2700080001712803</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8771734953057899</c:v>
+                  <c:v>1.2905567780227307</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9055768468304308</c:v>
+                  <c:v>1.3100840821959212</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9326017304820151</c:v>
+                  <c:v>1.3286636897063855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8463,8 +8466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073A11A-77BF-49D7-89C7-360306EC7745}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8547,8 +8550,8 @@
         <v>69.624543333773488</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F20" si="2">($B$2*E2)/($B$6+E2)</f>
-        <v>0.21480527390044768</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.14767862580655777</v>
       </c>
       <c r="G2">
         <v>140</v>
@@ -8579,7 +8582,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>0.21480527390044768</v>
+        <v>0.14767862580655777</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -8608,8 +8611,8 @@
         <v>86.370583868291192</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.26236252251093384</v>
+        <f t="shared" ref="F3:F20" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.18037423422626703</v>
       </c>
       <c r="G3">
         <v>130</v>
@@ -8640,7 +8643,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z20" si="5">F3</f>
-        <v>0.26236252251093384</v>
+        <v>0.18037423422626703</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -8673,7 +8676,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.32099072802197798</v>
+        <v>0.22068112551510985</v>
       </c>
       <c r="G4">
         <v>120</v>
@@ -8704,7 +8707,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="5"/>
-        <v>0.32099072802197798</v>
+        <v>0.22068112551510985</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -8740,7 +8743,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.39403170072115379</v>
+        <v>0.27089679424579322</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="5"/>
-        <v>0.39403170072115379</v>
+        <v>0.27089679424579322</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -8807,7 +8810,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.48432530602905843</v>
+        <v>0.33297364789497769</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -8838,7 +8841,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="5"/>
-        <v>0.48432530602905843</v>
+        <v>0.33297364789497769</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -8855,6 +8858,9 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
         <v>244</v>
       </c>
@@ -8868,7 +8874,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.59428341384863126</v>
+        <v>0.40856984702093402</v>
       </c>
       <c r="G7">
         <v>90</v>
@@ -8899,7 +8905,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>0.59428341384863126</v>
+        <v>0.40856984702093402</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -8929,7 +8935,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.72580250272034808</v>
+        <v>0.49898922062023926</v>
       </c>
       <c r="G8">
         <v>80</v>
@@ -8960,7 +8966,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="5"/>
-        <v>0.72580250272034808</v>
+        <v>0.49898922062023926</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -8990,7 +8996,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.87907998485388461</v>
+        <v>0.60436748958704567</v>
       </c>
       <c r="G9">
         <v>70</v>
@@ -9021,7 +9027,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="5"/>
-        <v>0.87907998485388461</v>
+        <v>0.60436748958704567</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -9051,7 +9057,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>1.0516094420600857</v>
+        <v>0.72298149141630885</v>
       </c>
       <c r="G10">
         <v>60</v>
@@ -9082,7 +9088,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="5"/>
-        <v>1.0516094420600857</v>
+        <v>0.72298149141630885</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -9112,7 +9118,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1.2368177307310617</v>
+        <v>0.85031218987760493</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -9143,7 +9149,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="5"/>
-        <v>1.2368177307310617</v>
+        <v>0.85031218987760493</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -9173,7 +9179,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>1.4276792936101372</v>
+        <v>0.98152951435696933</v>
       </c>
       <c r="G12">
         <v>40</v>
@@ -9204,7 +9210,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>1.4276792936101372</v>
+        <v>0.98152951435696933</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -9234,7 +9240,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>1.6107598607888629</v>
+        <v>1.1073974042923433</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -9265,7 +9271,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>1.6107598607888629</v>
+        <v>1.1073974042923433</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -9295,7 +9301,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>1.7763220205209154</v>
+        <v>1.2212213891081294</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -9326,7 +9332,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>1.7763220205209154</v>
+        <v>1.2212213891081294</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -9356,7 +9362,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1.9164596273291925</v>
+        <v>1.3175659937888198</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -9387,7 +9393,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>1.9164596273291925</v>
+        <v>1.3175659937888198</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -9417,7 +9423,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>2.0277292745113189</v>
+        <v>1.3940638762265316</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -9448,7 +9454,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="5"/>
-        <v>2.0277292745113189</v>
+        <v>1.3940638762265316</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -9478,7 +9484,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>2.1109189223374654</v>
+        <v>1.4512567591070076</v>
       </c>
       <c r="G17">
         <v>-10</v>
@@ -9509,7 +9515,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="5"/>
-        <v>2.1109189223374654</v>
+        <v>1.4512567591070076</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -9539,7 +9545,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>2.1697455488907931</v>
+        <v>1.4917000648624201</v>
       </c>
       <c r="G18">
         <v>-20</v>
@@ -9570,7 +9576,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="5"/>
-        <v>2.1697455488907931</v>
+        <v>1.4917000648624201</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -9600,7 +9606,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>2.2092430803273371</v>
+        <v>1.5188546177250442</v>
       </c>
       <c r="G19">
         <v>-30</v>
@@ -9631,7 +9637,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="5"/>
-        <v>2.2092430803273371</v>
+        <v>1.5188546177250442</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -9661,7 +9667,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>2.2345081940221507</v>
+        <v>1.5362243833902287</v>
       </c>
       <c r="G20">
         <v>-40</v>
@@ -9692,7 +9698,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="5"/>
-        <v>2.2345081940221507</v>
+        <v>1.5362243833902287</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -9751,7 +9757,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9826,16 +9832,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">($B$2*C2)/($A$2+C2)</f>
+        <f>($B$2*C2)/($A$2+C2)</f>
         <v>6.1328043432866984E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E19" si="1">C2*$A$6/(C2+$A$6)</f>
-        <v>85.539536915683698</v>
+        <f>C2*($A$6+$A$7)/(C2+$A$6+$A$7)</f>
+        <v>86.591669200364848</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F19" si="2">($B$2*E2)/($B$6+E2)</f>
-        <v>0.26003702511268512</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.18079914936482172</v>
       </c>
       <c r="G2">
         <v>130</v>
@@ -9866,7 +9872,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>0.26003702511268512</v>
+        <v>0.18079914936482172</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -9887,16 +9893,16 @@
         <v>113</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>($B$2*C3)/($A$2+C3)</f>
         <v>7.747766465821733E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>107.47946389969736</v>
+        <f t="shared" ref="E3:E19" si="0">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <v>109.14578931482041</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.32026077451592755</v>
+        <f t="shared" ref="F3:F19" si="1">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.22325695313775648</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -9906,7 +9912,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T19" si="3">D3</f>
+        <f t="shared" ref="T3:T19" si="2">D3</f>
         <v>7.747766465821733E-2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -9916,7 +9922,7 @@
         <v>9</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W19" si="4">G3</f>
+        <f t="shared" ref="W3:W19" si="3">G3</f>
         <v>120</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -9926,8 +9932,8 @@
         <v>8</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z19" si="5">F3</f>
-        <v>0.32026077451592755</v>
+        <f t="shared" ref="Z3:Z19" si="4">F3</f>
+        <v>0.22325695313775648</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -9936,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC19" si="6">G3</f>
+        <f t="shared" ref="AC3:AC19" si="5">G3</f>
         <v>120</v>
       </c>
       <c r="AD3" s="2" t="s">
@@ -9951,16 +9957,16 @@
         <v>144</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D3:D19" si="6">($B$2*C4)/($A$2+C4)</f>
+        <v>9.8100743187448394E-2</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.8100743187448394E-2</v>
-      </c>
-      <c r="E4">
+        <v>137.79904306220095</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
-        <v>135.15358361774744</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.39290438965724589</v>
+        <v>0.27476871320437335</v>
       </c>
       <c r="G4">
         <v>110</v>
@@ -9970,37 +9976,37 @@
         <v>8</v>
       </c>
       <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8100743187448394E-2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="3"/>
-        <v>9.8100743187448394E-2</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="3">
+        <v>110</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="4">
+        <v>0.27476871320437335</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3">
         <f t="shared" si="5"/>
-        <v>0.39290438965724589</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="AD4" s="2" t="s">
@@ -10018,16 +10024,16 @@
         <v>187</v>
       </c>
       <c r="D5">
+        <f t="shared" si="6"/>
+        <v>0.12627378759975447</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.12627378759975447</v>
-      </c>
-      <c r="E5">
+        <v>176.67552406259227</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>172.35023041474653</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.48514150943396228</v>
+        <v>0.34064836653786318</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -10037,37 +10043,37 @@
         <v>8</v>
       </c>
       <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12627378759975447</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="3"/>
-        <v>0.12627378759975447</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3">
+        <v>100</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="4">
+        <v>0.34064836653786318</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="5"/>
-        <v>0.48514150943396228</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="AD5" s="2" t="s">
@@ -10085,16 +10091,16 @@
         <v>243</v>
       </c>
       <c r="D6">
+        <f t="shared" si="6"/>
+        <v>0.16222941533481691</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.16222941533481691</v>
-      </c>
-      <c r="E6">
+        <v>225.84954981121115</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>218.82930822758902</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.59248387963460503</v>
+        <v>0.41799270245936598</v>
       </c>
       <c r="G6">
         <v>90</v>
@@ -10104,37 +10110,37 @@
         <v>8</v>
       </c>
       <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16222941533481691</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="3"/>
-        <v>0.16222941533481691</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3">
+        <v>90</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="4">
+        <v>0.41799270245936598</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="5"/>
-        <v>0.59248387963460503</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="AD6" s="2" t="s">
@@ -10142,20 +10148,23 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
         <v>323</v>
       </c>
       <c r="D7">
+        <f t="shared" si="6"/>
+        <v>0.21220386223372484</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.21220386223372484</v>
-      </c>
-      <c r="E7">
+        <v>293.38631847856942</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>281.64883075703528</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0.7251917367639783</v>
+        <v>0.51463371812316205</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -10165,37 +10174,37 @@
         <v>8</v>
       </c>
       <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21220386223372484</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="3"/>
-        <v>0.21220386223372484</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="3">
+        <v>80</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="4">
+        <v>0.51463371812316205</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="5"/>
-        <v>0.7251917367639783</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="AD7" s="2" t="s">
@@ -10207,16 +10216,16 @@
         <v>436</v>
       </c>
       <c r="D8">
+        <f t="shared" si="6"/>
+        <v>0.28014018691588782</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.28014018691588782</v>
-      </c>
-      <c r="E8">
+        <v>383.71837183718372</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>363.88467374810318</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.88044058744993325</v>
+        <v>0.62914612816027971</v>
       </c>
       <c r="G8">
         <v>70</v>
@@ -10226,37 +10235,37 @@
         <v>8</v>
       </c>
       <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28014018691588782</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="3"/>
-        <v>0.28014018691588782</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="3">
+        <v>70</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="4">
+        <v>0.62914612816027971</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="5"/>
-        <v>0.88044058744993325</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="AD8" s="2" t="s">
@@ -10268,16 +10277,16 @@
         <v>596</v>
       </c>
       <c r="D9">
+        <f t="shared" si="6"/>
+        <v>0.37137462235649549</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.37137462235649549</v>
-      </c>
-      <c r="E9">
+        <v>502.42360379346678</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>468.95565092989983</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1.0535060381768602</v>
+        <v>0.75868985832515068</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -10287,37 +10296,37 @@
         <v>8</v>
       </c>
       <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37137462235649549</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="3"/>
-        <v>0.37137462235649549</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="3">
+        <v>60</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="4">
+        <v>0.75868985832515068</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="5"/>
-        <v>1.0535060381768602</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="AD9" s="2" t="s">
@@ -10329,16 +10338,16 @@
         <v>834</v>
       </c>
       <c r="D10">
+        <f t="shared" si="6"/>
+        <v>0.49732562341886516</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.49732562341886516</v>
-      </c>
-      <c r="E10">
+        <v>661.57659890927118</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>604.74620962425843</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1.2436000657246138</v>
+        <v>0.90332995166199215</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -10348,37 +10357,37 @@
         <v>8</v>
       </c>
       <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49732562341886516</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="3"/>
-        <v>0.49732562341886516</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3">
+        <v>50</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="4">
+        <v>0.90332995166199215</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="5"/>
-        <v>1.2436000657246138</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="AD10" s="2" t="s">
@@ -10390,16 +10399,16 @@
         <v>1175</v>
       </c>
       <c r="D11">
+        <f t="shared" si="6"/>
+        <v>0.66</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.66</v>
-      </c>
-      <c r="E11">
+        <v>859.42857142857144</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>765.92592592592598</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1.4312919463087248</v>
+        <v>1.048617086662569</v>
       </c>
       <c r="G11">
         <v>40</v>
@@ -10409,37 +10418,37 @@
         <v>8</v>
       </c>
       <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.66</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="3"/>
-        <v>0.66</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
+        <v>40</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="4">
+        <v>1.048617086662569</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="5"/>
-        <v>1.4312919463087248</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AD11" s="2" t="s">
@@ -10451,16 +10460,16 @@
         <v>1707</v>
       </c>
       <c r="D12">
+        <f t="shared" si="6"/>
+        <v>0.87921023880131099</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.87921023880131099</v>
-      </c>
-      <c r="E12">
+        <v>1113.1852455675566</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>961.19785001279752</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>1.6173548757569429</v>
+        <v>1.195133758944587</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -10470,37 +10479,37 @@
         <v>8</v>
       </c>
       <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.87921023880131099</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="3"/>
-        <v>0.87921023880131099</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
+        <v>30</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="4">
+        <v>1.195133758944587</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="5"/>
-        <v>1.6173548757569429</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AD12" s="2" t="s">
@@ -10512,16 +10521,16 @@
         <v>2500</v>
       </c>
       <c r="D13">
+        <f t="shared" si="6"/>
+        <v>1.1458333333333333</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>1.1458333333333333</v>
-      </c>
-      <c r="E13">
+        <v>1403.5087719298247</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>1170.2127659574469</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1.7794117647058822</v>
+        <v>1.3248175182481754</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -10531,37 +10540,37 @@
         <v>8</v>
       </c>
       <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1458333333333333</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="3"/>
-        <v>1.1458333333333333</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3">
+        <v>20</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="4">
+        <v>1.3248175182481754</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="5"/>
-        <v>1.7794117647058822</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AD13" s="2" t="s">
@@ -10573,16 +10582,16 @@
         <v>3792</v>
       </c>
       <c r="D14">
+        <f t="shared" si="6"/>
+        <v>1.4735751295336785</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.4735751295336785</v>
-      </c>
-      <c r="E14">
+        <v>1735.4691075514875</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>1392.2563417890522</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1.9205491684339768</v>
+        <v>1.4393675757068762</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -10592,37 +10601,37 @@
         <v>8</v>
       </c>
       <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4735751295336785</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="3">
         <f t="shared" si="3"/>
-        <v>1.4735751295336785</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="3">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="4">
+        <v>1.4393675757068762</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="5"/>
-        <v>1.9205491684339768</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AD14" s="2" t="s">
@@ -10634,16 +10643,16 @@
         <v>5896</v>
       </c>
       <c r="D15">
+        <f t="shared" si="6"/>
+        <v>1.8362400906002265</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.8362400906002265</v>
-      </c>
-      <c r="E15">
+        <v>2074.230430958663</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>1602.1739130434783</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>2.0318295739348371</v>
+        <v>1.5307604279910736</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -10653,37 +10662,37 @@
         <v>8</v>
       </c>
       <c r="T15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8362400906002265</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="3"/>
-        <v>1.8362400906002265</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="4">
+        <v>1.5307604279910736</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="5"/>
-        <v>2.0318295739348371</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -10695,16 +10704,16 @@
         <v>9397</v>
       </c>
       <c r="D16">
+        <f t="shared" si="6"/>
+        <v>2.1997659076399234</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>2.1997659076399234</v>
-      </c>
-      <c r="E16">
+        <v>2387.1080415972056</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>1782.6506855221178</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>2.1140803956567007</v>
+        <v>1.5989307996268811</v>
       </c>
       <c r="G16">
         <v>-10</v>
@@ -10714,37 +10723,37 @@
         <v>8</v>
       </c>
       <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1997659076399234</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="3">
         <f t="shared" si="3"/>
-        <v>2.1997659076399234</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="3">
+        <v>-10</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="4">
+        <v>1.5989307996268811</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="5"/>
-        <v>2.1140803956567007</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="AD16" s="2" t="s">
@@ -10756,16 +10765,16 @@
         <v>15462</v>
       </c>
       <c r="D17">
+        <f>($B$2*C17)/($A$2+C17)</f>
+        <v>2.530731078266045</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>2.530731078266045</v>
-      </c>
-      <c r="E17">
+        <v>2651.2913942771406</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>1925.9653493375608</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>2.1721670949565</v>
+        <v>1.6473944972439256</v>
       </c>
       <c r="G17">
         <v>-20</v>
@@ -10775,37 +10784,37 @@
         <v>8</v>
       </c>
       <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.530731078266045</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="3">
         <f t="shared" si="3"/>
-        <v>2.530731078266045</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="3">
+        <v>-20</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="4"/>
-        <v>-20</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="4">
+        <v>1.6473944972439256</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="5"/>
-        <v>2.1721670949565</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="6"/>
         <v>-20</v>
       </c>
       <c r="AD17" s="2" t="s">
@@ -10817,16 +10826,16 @@
         <v>26114</v>
       </c>
       <c r="D18">
+        <f t="shared" si="6"/>
+        <v>2.7966573635360548</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.7966573635360548</v>
-      </c>
-      <c r="E18">
+        <v>2850.6788565190695</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>2029.0598290598291</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>2.2105530474040629</v>
+        <v>1.6795681740061021</v>
       </c>
       <c r="G18">
         <v>-30</v>
@@ -10836,37 +10845,37 @@
         <v>8</v>
       </c>
       <c r="T18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7966573635360548</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="3"/>
-        <v>2.7966573635360548</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="3">
+        <v>-30</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4">
         <f t="shared" si="4"/>
-        <v>-30</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="4">
+        <v>1.6795681740061021</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="5"/>
-        <v>2.2105530474040629</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
       <c r="AD18" s="2" t="s">
@@ -10878,16 +10887,16 @@
         <v>45313</v>
       </c>
       <c r="D19">
+        <f t="shared" si="6"/>
+        <v>2.9898806310359305</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.9898806310359305</v>
-      </c>
-      <c r="E19">
+        <v>2988.9225568404345</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>2098.1331425083663</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>2.234842420191085</v>
+        <v>1.699987391132245</v>
       </c>
       <c r="G19">
         <v>-40</v>
@@ -10897,17 +10906,17 @@
         <v>8</v>
       </c>
       <c r="T19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9898806310359305</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="3"/>
-        <v>2.9898806310359305</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="4"/>
         <v>-40</v>
       </c>
       <c r="X19" s="2" t="s">
@@ -10917,17 +10926,17 @@
         <v>8</v>
       </c>
       <c r="Z19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.699987391132245</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="5"/>
-        <v>2.234842420191085</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="6"/>
         <v>-40</v>
       </c>
       <c r="AD19" s="2" t="s">
@@ -10952,6 +10961,11 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -10978,7 +10992,7 @@
   <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11061,8 +11075,8 @@
         <v>77.192982456140356</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F20" si="2">($B$2*E2)/($B$6+E2)</f>
-        <v>0.23648208469055376</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.16258143322475571</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -11093,7 +11107,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>0.23648208469055376</v>
+        <v>0.16258143322475571</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -11122,8 +11136,8 @@
         <v>88.30715532286213</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.26776779987171262</v>
+        <f t="shared" ref="F3:F20" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.18409036241180243</v>
       </c>
       <c r="G3">
         <v>140</v>
@@ -11154,7 +11168,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z20" si="5">F3</f>
-        <v>0.26776779987171262</v>
+        <v>0.18409036241180243</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -11187,7 +11201,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.29561195445920302</v>
+        <v>0.20323321869070207</v>
       </c>
       <c r="G4">
         <v>130</v>
@@ -11218,7 +11232,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="5"/>
-        <v>0.29561195445920302</v>
+        <v>0.20323321869070207</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -11254,7 +11268,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.32511682242990653</v>
+        <v>0.22351781542056073</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -11285,7 +11299,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="5"/>
-        <v>0.32511682242990653</v>
+        <v>0.22351781542056073</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -11321,7 +11335,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.38383685800604223</v>
+        <v>0.26388783987915404</v>
       </c>
       <c r="G6">
         <v>110</v>
@@ -11352,7 +11366,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="5"/>
-        <v>0.38383685800604223</v>
+        <v>0.26388783987915404</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -11369,6 +11383,9 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
         <v>174</v>
       </c>
@@ -11382,7 +11399,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.45822692977365054</v>
+        <v>0.31503101421938473</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -11413,7 +11430,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>0.45822692977365054</v>
+        <v>0.31503101421938473</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -11443,7 +11460,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.55189185470555857</v>
+        <v>0.37942565011007157</v>
       </c>
       <c r="G8">
         <v>90</v>
@@ -11474,7 +11491,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="5"/>
-        <v>0.55189185470555857</v>
+        <v>0.37942565011007157</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -11504,7 +11521,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.68924050632911382</v>
+        <v>0.47385284810126577</v>
       </c>
       <c r="G9">
         <v>80</v>
@@ -11535,7 +11552,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="5"/>
-        <v>0.68924050632911382</v>
+        <v>0.47385284810126577</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -11565,7 +11582,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.83316267832489643</v>
+        <v>0.5727993413483663</v>
       </c>
       <c r="G10">
         <v>70</v>
@@ -11596,7 +11613,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="5"/>
-        <v>0.83316267832489643</v>
+        <v>0.5727993413483663</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -11626,7 +11643,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1.0032200811359027</v>
+        <v>0.689713805780933</v>
       </c>
       <c r="G11">
         <v>60</v>
@@ -11657,7 +11674,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="5"/>
-        <v>1.0032200811359027</v>
+        <v>0.689713805780933</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -11687,7 +11704,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>1.205152574156154</v>
+        <v>0.8285423947323558</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -11718,7 +11735,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>1.205152574156154</v>
+        <v>0.8285423947323558</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -11748,7 +11765,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>1.4115004122011541</v>
+        <v>0.97040653338829341</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -11779,7 +11796,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>1.4115004122011541</v>
+        <v>0.97040653338829341</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -11809,7 +11826,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>1.6020410344090616</v>
+        <v>1.1014032111562297</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -11840,7 +11857,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>1.6020410344090616</v>
+        <v>1.1014032111562297</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -11870,7 +11887,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1.7792581986505569</v>
+        <v>1.2232400115722577</v>
       </c>
       <c r="G15">
         <v>20</v>
@@ -11901,7 +11918,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>1.7792581986505569</v>
+        <v>1.2232400115722577</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -11931,7 +11948,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>1.9170157289435108</v>
+        <v>1.3179483136486636</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -11962,7 +11979,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="5"/>
-        <v>1.9170157289435108</v>
+        <v>1.3179483136486636</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -11992,7 +12009,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>2.0367283376719971</v>
+        <v>1.4002507321494979</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -12023,7 +12040,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="5"/>
-        <v>2.0367283376719971</v>
+        <v>1.4002507321494979</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -12053,7 +12070,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>2.1083050455176671</v>
+        <v>1.4494597187933962</v>
       </c>
       <c r="G18">
         <v>-10</v>
@@ -12084,7 +12101,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="5"/>
-        <v>2.1083050455176671</v>
+        <v>1.4494597187933962</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -12114,7 +12131,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>2.159854435019374</v>
+        <v>1.4848999240758196</v>
       </c>
       <c r="G19">
         <v>-20</v>
@@ -12145,7 +12162,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="5"/>
-        <v>2.159854435019374</v>
+        <v>1.4848999240758196</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -12175,7 +12192,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>2.1948712255772644</v>
+        <v>1.5089739675843694</v>
       </c>
       <c r="G20">
         <v>-30</v>
@@ -12206,7 +12223,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="5"/>
-        <v>2.1948712255772644</v>
+        <v>1.5089739675843694</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -12266,7 +12283,7 @@
   <dimension ref="A1:AD73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F2" sqref="F2:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12349,8 +12366,8 @@
         <v>10.192558274214566</v>
       </c>
       <c r="F2">
-        <f>($B$2*E2)/($B$6+E2)</f>
-        <v>3.3296070169404078E-2</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>2.2891048241465303E-2</v>
       </c>
       <c r="G2">
         <v>180</v>
@@ -12381,7 +12398,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>3.3296070169404078E-2</v>
+        <v>2.2891048241465303E-2</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -12410,8 +12427,8 @@
         <v>11.192764273600904</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F46" si="2">($B$2*E3)/($B$6+E3)</f>
-        <v>3.6527280858676209E-2</v>
+        <f t="shared" ref="F3:F46" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>2.5112505590339892E-2</v>
       </c>
       <c r="G3">
         <v>175</v>
@@ -12442,7 +12459,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z46" si="5">F3</f>
-        <v>3.6527280858676209E-2</v>
+        <v>2.5112505590339892E-2</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -12475,7 +12492,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>4.0131343944676226E-2</v>
+        <v>2.7590298961964906E-2</v>
       </c>
       <c r="G4">
         <v>170</v>
@@ -12506,7 +12523,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="5"/>
-        <v>4.0131343944676226E-2</v>
+        <v>2.7590298961964906E-2</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -12542,7 +12559,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>4.4199790347424266E-2</v>
+        <v>3.0387355863854184E-2</v>
       </c>
       <c r="G5">
         <v>165</v>
@@ -12573,7 +12590,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="5"/>
-        <v>4.4199790347424266E-2</v>
+        <v>3.0387355863854184E-2</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -12609,7 +12626,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>4.8790669788360531E-2</v>
+        <v>3.3543585479497866E-2</v>
       </c>
       <c r="G6">
         <v>160</v>
@@ -12640,7 +12657,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="5"/>
-        <v>4.8790669788360531E-2</v>
+        <v>3.3543585479497866E-2</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -12657,6 +12674,9 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
         <v>16.739999999999998</v>
       </c>
@@ -12670,7 +12690,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>5.3928880779279792E-2</v>
+        <v>3.7076105535754855E-2</v>
       </c>
       <c r="G7">
         <v>155</v>
@@ -12701,7 +12721,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>5.3928880779279792E-2</v>
+        <v>3.7076105535754855E-2</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -12731,7 +12751,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>5.9731850755569395E-2</v>
+        <v>4.1065647394453959E-2</v>
       </c>
       <c r="G8">
         <v>150</v>
@@ -12762,7 +12782,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="5"/>
-        <v>5.9731850755569395E-2</v>
+        <v>4.1065647394453959E-2</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -12792,7 +12812,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>6.6188961534116575E-2</v>
+        <v>4.5504911054705138E-2</v>
       </c>
       <c r="G9">
         <v>145</v>
@@ -12823,7 +12843,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="5"/>
-        <v>6.6188961534116575E-2</v>
+        <v>4.5504911054705138E-2</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -12853,7 +12873,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>7.3442997888810688E-2</v>
+        <v>5.0492061048557343E-2</v>
       </c>
       <c r="G10">
         <v>140</v>
@@ -12884,7 +12904,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="5"/>
-        <v>7.3442997888810688E-2</v>
+        <v>5.0492061048557343E-2</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -12914,7 +12934,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>8.1753890914189567E-2</v>
+        <v>5.6205800003505321E-2</v>
       </c>
       <c r="G11">
         <v>135</v>
@@ -12945,7 +12965,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="5"/>
-        <v>8.1753890914189567E-2</v>
+        <v>5.6205800003505321E-2</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -12975,7 +12995,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>9.1249162373832543E-2</v>
+        <v>6.2733799132009868E-2</v>
       </c>
       <c r="G12">
         <v>130</v>
@@ -13006,7 +13026,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>9.1249162373832543E-2</v>
+        <v>6.2733799132009868E-2</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -13036,7 +13056,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.1020477371228538</v>
+        <v>7.0157819271961991E-2</v>
       </c>
       <c r="G13">
         <v>125</v>
@@ -13067,7 +13087,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>0.1020477371228538</v>
+        <v>7.0157819271961991E-2</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -13097,7 +13117,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.11440734589301252</v>
+        <v>7.8655050301446108E-2</v>
       </c>
       <c r="G14">
         <v>120</v>
@@ -13128,7 +13148,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>0.11440734589301252</v>
+        <v>7.8655050301446108E-2</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -13158,7 +13178,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.12891898287877954</v>
+        <v>8.8631800729160923E-2</v>
       </c>
       <c r="G15">
         <v>115</v>
@@ -13189,7 +13209,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>0.12891898287877954</v>
+        <v>8.8631800729160923E-2</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -13219,7 +13239,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.1458689468383374</v>
+        <v>0.10028490095135696</v>
       </c>
       <c r="G16">
         <v>110</v>
@@ -13250,7 +13270,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="5"/>
-        <v>0.1458689468383374</v>
+        <v>0.10028490095135696</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -13280,7 +13300,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.16522252191503708</v>
+        <v>0.113590483816588</v>
       </c>
       <c r="G17">
         <v>105</v>
@@ -13311,7 +13331,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="5"/>
-        <v>0.16522252191503708</v>
+        <v>0.113590483816588</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -13341,7 +13361,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.18767511674449633</v>
+        <v>0.12902664276184123</v>
       </c>
       <c r="G18">
         <v>100</v>
@@ -13372,7 +13392,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="5"/>
-        <v>0.18767511674449633</v>
+        <v>0.12902664276184123</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -13402,7 +13422,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.21236816084377058</v>
+        <v>0.14600311058009227</v>
       </c>
       <c r="G19">
         <v>95</v>
@@ -13433,7 +13453,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="5"/>
-        <v>0.21236816084377058</v>
+        <v>0.14600311058009227</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -13463,7 +13483,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.24176413255360624</v>
+        <v>0.16621284113060431</v>
       </c>
       <c r="G20">
         <v>90</v>
@@ -13494,7 +13514,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="5"/>
-        <v>0.24176413255360624</v>
+        <v>0.16621284113060431</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -13524,7 +13544,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.27798340778557751</v>
+        <v>0.19111359285258456</v>
       </c>
       <c r="G21">
         <v>85</v>
@@ -13555,7 +13575,7 @@
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="5"/>
-        <v>0.27798340778557751</v>
+        <v>0.19111359285258456</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>3</v>
@@ -13585,7 +13605,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.31782363977485922</v>
+        <v>0.21850375234521571</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -13616,7 +13636,7 @@
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="5"/>
-        <v>0.31782363977485922</v>
+        <v>0.21850375234521571</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>3</v>
@@ -13646,7 +13666,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.36311087354917532</v>
+        <v>0.24963872556505801</v>
       </c>
       <c r="G23">
         <v>75</v>
@@ -13677,7 +13697,7 @@
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="5"/>
-        <v>0.36311087354917532</v>
+        <v>0.24963872556505801</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>3</v>
@@ -13707,7 +13727,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.41739614243323436</v>
+        <v>0.28695984792284862</v>
       </c>
       <c r="G24">
         <v>70</v>
@@ -13738,7 +13758,7 @@
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="5"/>
-        <v>0.41739614243323436</v>
+        <v>0.28695984792284862</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>3</v>
@@ -13768,7 +13788,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.4790017211703958</v>
+        <v>0.32931368330464716</v>
       </c>
       <c r="G25">
         <v>65</v>
@@ -13799,7 +13819,7 @@
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="5"/>
-        <v>0.4790017211703958</v>
+        <v>0.32931368330464716</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>3</v>
@@ -13829,7 +13849,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.55189185470555857</v>
+        <v>0.37942565011007157</v>
       </c>
       <c r="G26">
         <v>60</v>
@@ -13860,7 +13880,7 @@
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="5"/>
-        <v>0.55189185470555857</v>
+        <v>0.37942565011007157</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>3</v>
@@ -13890,7 +13910,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.63291819611955957</v>
+        <v>0.43513125983219725</v>
       </c>
       <c r="G27">
         <v>55</v>
@@ -13921,7 +13941,7 @@
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="5"/>
-        <v>0.63291819611955957</v>
+        <v>0.43513125983219725</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>3</v>
@@ -13951,7 +13971,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.72366270430906388</v>
+        <v>0.49751810921248141</v>
       </c>
       <c r="G28">
         <v>50</v>
@@ -13982,7 +14002,7 @@
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="5"/>
-        <v>0.72366270430906388</v>
+        <v>0.49751810921248141</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>3</v>
@@ -14012,7 +14032,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.823853635942566</v>
+        <v>0.56639937471051416</v>
       </c>
       <c r="G29">
         <v>45</v>
@@ -14043,7 +14063,7 @@
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="5"/>
-        <v>0.823853635942566</v>
+        <v>0.56639937471051416</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>3</v>
@@ -14073,7 +14093,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.93390564826700884</v>
+        <v>0.64206013318356847</v>
       </c>
       <c r="G30">
         <v>40</v>
@@ -14104,7 +14124,7 @@
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="5"/>
-        <v>0.93390564826700884</v>
+        <v>0.64206013318356847</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>3</v>
@@ -14134,7 +14154,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>1.0516094420600857</v>
+        <v>0.72298149141630885</v>
       </c>
       <c r="G31">
         <v>35</v>
@@ -14165,7 +14185,7 @@
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="5"/>
-        <v>1.0516094420600857</v>
+        <v>0.72298149141630885</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>3</v>
@@ -14195,7 +14215,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>1.1753286014721345</v>
+        <v>0.80803841351209238</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -14226,7 +14246,7 @@
       </c>
       <c r="Z32" s="4">
         <f t="shared" si="5"/>
-        <v>1.1753286014721345</v>
+        <v>0.80803841351209238</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>3</v>
@@ -14256,7 +14276,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>1.301453488372093</v>
+        <v>0.89474927325581388</v>
       </c>
       <c r="G33">
         <v>25</v>
@@ -14287,7 +14307,7 @@
       </c>
       <c r="Z33" s="4">
         <f t="shared" si="5"/>
-        <v>1.301453488372093</v>
+        <v>0.89474927325581388</v>
       </c>
       <c r="AA33" s="2" t="s">
         <v>3</v>
@@ -14317,7 +14337,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>1.423577621240856</v>
+        <v>0.97870961460308847</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -14348,7 +14368,7 @@
       </c>
       <c r="Z34" s="4">
         <f t="shared" si="5"/>
-        <v>1.423577621240856</v>
+        <v>0.97870961460308847</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>3</v>
@@ -14378,7 +14398,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>1.5544080604534005</v>
+        <v>1.0686555415617129</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -14409,7 +14429,7 @@
       </c>
       <c r="Z35" s="4">
         <f t="shared" si="5"/>
-        <v>1.5544080604534005</v>
+        <v>1.0686555415617129</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>3</v>
@@ -14438,8 +14458,8 @@
         <v>1020.9500609013398</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36" si="8">($B$2*E36)/($B$6+E36)</f>
-        <v>1.6671046287367406</v>
+        <f t="shared" si="2"/>
+        <v>1.146134432256509</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -14469,8 +14489,8 @@
         <v>8</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" ref="Z36" si="9">F36</f>
-        <v>1.6671046287367406</v>
+        <f t="shared" ref="Z36" si="8">F36</f>
+        <v>1.146134432256509</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>3</v>
@@ -14479,7 +14499,7 @@
         <v>9</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" ref="AC36" si="10">G36</f>
+        <f t="shared" ref="AC36" si="9">G36</f>
         <v>10</v>
       </c>
       <c r="AD36" s="2" t="s">
@@ -14500,7 +14520,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>1.7752313716184147</v>
+        <v>1.2204715679876601</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -14520,7 +14540,7 @@
         <v>9</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" ref="W37:W46" si="11">G37</f>
+        <f t="shared" ref="W37:W46" si="10">G37</f>
         <v>5</v>
       </c>
       <c r="X37" s="2" t="s">
@@ -14531,7 +14551,7 @@
       </c>
       <c r="Z37" s="4">
         <f t="shared" si="5"/>
-        <v>1.7752313716184147</v>
+        <v>1.2204715679876601</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>3</v>
@@ -14561,7 +14581,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>1.8716104392106938</v>
+        <v>1.2867321769573519</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -14581,7 +14601,7 @@
         <v>9</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X38" s="2" t="s">
@@ -14592,7 +14612,7 @@
       </c>
       <c r="Z38" s="4">
         <f t="shared" si="5"/>
-        <v>1.8716104392106938</v>
+        <v>1.2867321769573519</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
@@ -14622,7 +14642,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>1.9550085487277482</v>
+        <v>1.3440683772503268</v>
       </c>
       <c r="G39">
         <v>-5</v>
@@ -14642,7 +14662,7 @@
         <v>9</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-5</v>
       </c>
       <c r="X39" s="2" t="s">
@@ -14653,7 +14673,7 @@
       </c>
       <c r="Z39" s="4">
         <f t="shared" si="5"/>
-        <v>1.9550085487277482</v>
+        <v>1.3440683772503268</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>3</v>
@@ -14683,7 +14703,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>2.0253218884120172</v>
+        <v>1.3924087982832618</v>
       </c>
       <c r="G40">
         <v>-10</v>
@@ -14703,7 +14723,7 @@
         <v>9</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-10</v>
       </c>
       <c r="X40" s="2" t="s">
@@ -14714,7 +14734,7 @@
       </c>
       <c r="Z40" s="4">
         <f t="shared" si="5"/>
-        <v>2.0253218884120172</v>
+        <v>1.3924087982832618</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>3</v>
@@ -14744,7 +14764,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>2.0832513230659448</v>
+        <v>1.4322352846078372</v>
       </c>
       <c r="G41">
         <v>-15</v>
@@ -14764,7 +14784,7 @@
         <v>9</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-15</v>
       </c>
       <c r="X41" s="2" t="s">
@@ -14775,7 +14795,7 @@
       </c>
       <c r="Z41" s="4">
         <f t="shared" si="5"/>
-        <v>2.0832513230659448</v>
+        <v>1.4322352846078372</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>3</v>
@@ -14805,7 +14825,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>2.1298263193052769</v>
+        <v>1.4642555945223779</v>
       </c>
       <c r="G42">
         <v>-20</v>
@@ -14825,7 +14845,7 @@
         <v>9</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-20</v>
       </c>
       <c r="X42" s="2" t="s">
@@ -14836,7 +14856,7 @@
       </c>
       <c r="Z42" s="4">
         <f t="shared" si="5"/>
-        <v>2.1298263193052769</v>
+        <v>1.4642555945223779</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>3</v>
@@ -14866,7 +14886,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>2.1634635829761382</v>
+        <v>1.4873812132960951</v>
       </c>
       <c r="G43">
         <v>-25</v>
@@ -14886,7 +14906,7 @@
         <v>9</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="X43" s="2" t="s">
@@ -14897,7 +14917,7 @@
       </c>
       <c r="Z43" s="4">
         <f t="shared" si="5"/>
-        <v>2.1634635829761382</v>
+        <v>1.4873812132960951</v>
       </c>
       <c r="AA43" s="2" t="s">
         <v>3</v>
@@ -14927,7 +14947,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>2.190118909585864</v>
+        <v>1.5057067503402815</v>
       </c>
       <c r="G44">
         <v>-30</v>
@@ -14947,7 +14967,7 @@
         <v>9</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="X44" s="2" t="s">
@@ -14958,7 +14978,7 @@
       </c>
       <c r="Z44" s="4">
         <f t="shared" si="5"/>
-        <v>2.190118909585864</v>
+        <v>1.5057067503402815</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>3</v>
@@ -14988,7 +15008,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>2.2109198598520661</v>
+        <v>1.5200074036482953</v>
       </c>
       <c r="G45">
         <v>-35</v>
@@ -15008,7 +15028,7 @@
         <v>9</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-35</v>
       </c>
       <c r="X45" s="2" t="s">
@@ -15019,7 +15039,7 @@
       </c>
       <c r="Z45" s="4">
         <f t="shared" si="5"/>
-        <v>2.2109198598520661</v>
+        <v>1.5200074036482953</v>
       </c>
       <c r="AA45" s="2" t="s">
         <v>3</v>
@@ -15049,7 +15069,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>2.226877659360277</v>
+        <v>1.5309783908101906</v>
       </c>
       <c r="G46">
         <v>-40</v>
@@ -15069,7 +15089,7 @@
         <v>9</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-40</v>
       </c>
       <c r="X46" s="2" t="s">
@@ -15080,7 +15100,7 @@
       </c>
       <c r="Z46" s="4">
         <f t="shared" si="5"/>
-        <v>2.226877659360277</v>
+        <v>1.5309783908101906</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>3</v>
@@ -15149,8 +15169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E78ED0-64E0-4567-9D45-58470B79DF18}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15233,8 +15253,8 @@
         <v>10.905669935231757</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F39" si="2">($B$2*E2)/($B$6+E2)</f>
-        <v>3.5600463877673745E-2</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>2.4475318915900698E-2</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -15265,7 +15285,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>3.5600463877673745E-2</v>
+        <v>2.4475318915900698E-2</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -15294,8 +15314,8 @@
         <v>12.192056991492862</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>3.9749163999085395E-2</v>
+        <f t="shared" ref="F3:F40" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>2.732755024937121E-2</v>
       </c>
       <c r="G3">
         <v>145</v>
@@ -15326,7 +15346,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z40" si="5">F3</f>
-        <v>3.9749163999085395E-2</v>
+        <v>2.732755024937121E-2</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -15359,7 +15379,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>4.4485294117647053E-2</v>
+        <v>3.0583639705882352E-2</v>
       </c>
       <c r="G4">
         <v>140</v>
@@ -15390,7 +15410,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="5"/>
-        <v>4.4485294117647053E-2</v>
+        <v>3.0583639705882352E-2</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -15426,7 +15446,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>4.9895975588938199E-2</v>
+        <v>3.4303483217395014E-2</v>
       </c>
       <c r="G5">
         <v>135</v>
@@ -15457,7 +15477,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="5"/>
-        <v>4.9895975588938199E-2</v>
+        <v>3.4303483217395014E-2</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -15493,7 +15513,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>5.6128181121797599E-2</v>
+        <v>3.8588124521235855E-2</v>
       </c>
       <c r="G6">
         <v>130</v>
@@ -15524,7 +15544,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="5"/>
-        <v>5.6128181121797599E-2</v>
+        <v>3.8588124521235855E-2</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -15541,6 +15561,9 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
         <v>19.75</v>
       </c>
@@ -15554,7 +15577,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>6.3354984093319175E-2</v>
+        <v>4.3556551564156935E-2</v>
       </c>
       <c r="G7">
         <v>125</v>
@@ -15585,7 +15608,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>6.3354984093319175E-2</v>
+        <v>4.3556551564156935E-2</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -15615,7 +15638,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>7.1711341803532683E-2</v>
+        <v>4.9301547489928724E-2</v>
       </c>
       <c r="G8">
         <v>120</v>
@@ -15646,7 +15669,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="5"/>
-        <v>7.1711341803532683E-2</v>
+        <v>4.9301547489928724E-2</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -15676,7 +15699,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>8.1232469180819888E-2</v>
+        <v>5.5847322561813677E-2</v>
       </c>
       <c r="G9">
         <v>115</v>
@@ -15707,7 +15730,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="5"/>
-        <v>8.1232469180819888E-2</v>
+        <v>5.5847322561813677E-2</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -15737,7 +15760,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>9.2191119421729792E-2</v>
+        <v>6.3381394602439231E-2</v>
       </c>
       <c r="G10">
         <v>110</v>
@@ -15768,7 +15791,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="5"/>
-        <v>9.2191119421729792E-2</v>
+        <v>6.3381394602439231E-2</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -15798,7 +15821,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.10511339991677068</v>
+        <v>7.2265462442779843E-2</v>
       </c>
       <c r="G11">
         <v>105</v>
@@ -15829,7 +15852,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="5"/>
-        <v>0.10511339991677068</v>
+        <v>7.2265462442779843E-2</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -15859,7 +15882,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.1202237179222282</v>
+        <v>8.2653806071531888E-2</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -15890,7 +15913,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>0.1202237179222282</v>
+        <v>8.2653806071531888E-2</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -15920,7 +15943,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.1373985406247438</v>
+        <v>9.446149667951137E-2</v>
       </c>
       <c r="G13">
         <v>95</v>
@@ -15951,7 +15974,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>0.1373985406247438</v>
+        <v>9.446149667951137E-2</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -15981,7 +16004,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.15727780522803267</v>
+        <v>0.10812849109427246</v>
       </c>
       <c r="G14">
         <v>90</v>
@@ -16012,7 +16035,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>0.15727780522803267</v>
+        <v>0.10812849109427246</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -16042,7 +16065,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.18135304725452672</v>
+        <v>0.12468021998748713</v>
       </c>
       <c r="G15">
         <v>85</v>
@@ -16073,7 +16096,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>0.18135304725452672</v>
+        <v>0.12468021998748713</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -16103,7 +16126,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.20997960719094005</v>
+        <v>0.14436097994377128</v>
       </c>
       <c r="G16">
         <v>80</v>
@@ -16134,7 +16157,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="5"/>
-        <v>0.20997960719094005</v>
+        <v>0.14436097994377128</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -16164,7 +16187,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.24271198659496535</v>
+        <v>0.16686449078403867</v>
       </c>
       <c r="G17">
         <v>75</v>
@@ -16195,7 +16218,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="5"/>
-        <v>0.24271198659496535</v>
+        <v>0.16686449078403867</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -16225,7 +16248,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.28064774392964115</v>
+        <v>0.19294532395162828</v>
       </c>
       <c r="G18">
         <v>70</v>
@@ -16256,7 +16279,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="5"/>
-        <v>0.28064774392964115</v>
+        <v>0.19294532395162828</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -16286,7 +16309,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.32259470216854236</v>
+        <v>0.22178385774087286</v>
       </c>
       <c r="G19">
         <v>65</v>
@@ -16317,7 +16340,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="5"/>
-        <v>0.32259470216854236</v>
+        <v>0.22178385774087286</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -16347,7 +16370,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.3700699939135727</v>
+        <v>0.25442312081558127</v>
       </c>
       <c r="G20">
         <v>60</v>
@@ -16378,7 +16401,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="5"/>
-        <v>0.3700699939135727</v>
+        <v>0.25442312081558127</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -16408,7 +16431,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.43148366825292123</v>
+        <v>0.29664502192388331</v>
       </c>
       <c r="G21">
         <v>55</v>
@@ -16439,7 +16462,7 @@
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="5"/>
-        <v>0.43148366825292123</v>
+        <v>0.29664502192388331</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>3</v>
@@ -16469,7 +16492,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.50588465907164415</v>
+        <v>0.34779570311175534</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -16500,7 +16523,7 @@
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="5"/>
-        <v>0.50588465907164415</v>
+        <v>0.34779570311175534</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>3</v>
@@ -16530,7 +16553,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.58626383405604809</v>
+        <v>0.4030563859135331</v>
       </c>
       <c r="G23">
         <v>45</v>
@@ -16561,7 +16584,7 @@
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="5"/>
-        <v>0.58626383405604809</v>
+        <v>0.4030563859135331</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>3</v>
@@ -16591,7 +16614,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.6754615867859769</v>
+        <v>0.46437984091535911</v>
       </c>
       <c r="G24">
         <v>40</v>
@@ -16622,7 +16645,7 @@
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="5"/>
-        <v>0.6754615867859769</v>
+        <v>0.46437984091535911</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>3</v>
@@ -16652,7 +16675,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.77492194533300141</v>
+        <v>0.53275883741643848</v>
       </c>
       <c r="G25">
         <v>35</v>
@@ -16683,7 +16706,7 @@
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="5"/>
-        <v>0.77492194533300141</v>
+        <v>0.53275883741643848</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>3</v>
@@ -16713,7 +16736,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.88449417149601961</v>
+        <v>0.60808974290351347</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -16744,7 +16767,7 @@
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="5"/>
-        <v>0.88449417149601961</v>
+        <v>0.60808974290351347</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>3</v>
@@ -16774,7 +16797,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>1.0017191764686768</v>
+        <v>0.68868193382221532</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -16805,7 +16828,7 @@
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="5"/>
-        <v>1.0017191764686768</v>
+        <v>0.68868193382221532</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>3</v>
@@ -16835,7 +16858,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>1.1256039521418886</v>
+        <v>0.77385271709754844</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -16866,7 +16889,7 @@
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="5"/>
-        <v>1.1256039521418886</v>
+        <v>0.77385271709754844</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>3</v>
@@ -16896,7 +16919,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>1.254327673502039</v>
+        <v>0.86235027553265187</v>
       </c>
       <c r="G29">
         <v>15</v>
@@ -16927,7 +16950,7 @@
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="5"/>
-        <v>1.254327673502039</v>
+        <v>0.86235027553265187</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>3</v>
@@ -16957,7 +16980,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>1.3837765957446806</v>
+        <v>0.95134640957446792</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -16988,7 +17011,7 @@
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="5"/>
-        <v>1.3837765957446806</v>
+        <v>0.95134640957446792</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>3</v>
@@ -17018,7 +17041,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>1.5084450402144771</v>
+        <v>1.0370559651474529</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -17049,7 +17072,7 @@
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="5"/>
-        <v>1.5084450402144771</v>
+        <v>1.0370559651474529</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>3</v>
@@ -17079,7 +17102,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>1.6270031886443119</v>
+        <v>1.1185646921929644</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -17110,7 +17133,7 @@
       </c>
       <c r="Z32" s="4">
         <f t="shared" si="5"/>
-        <v>1.6270031886443119</v>
+        <v>1.1185646921929644</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>3</v>
@@ -17140,7 +17163,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>1.7375851353652305</v>
+        <v>1.1945897805635959</v>
       </c>
       <c r="G33">
         <v>-5</v>
@@ -17171,7 +17194,7 @@
       </c>
       <c r="Z33" s="4">
         <f t="shared" si="5"/>
-        <v>1.7375851353652305</v>
+        <v>1.1945897805635959</v>
       </c>
       <c r="AA33" s="2" t="s">
         <v>3</v>
@@ -17201,7 +17224,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>1.8374585234342597</v>
+        <v>1.2632527348610536</v>
       </c>
       <c r="G34">
         <v>-10</v>
@@ -17232,7 +17255,7 @@
       </c>
       <c r="Z34" s="4">
         <f t="shared" si="5"/>
-        <v>1.8374585234342597</v>
+        <v>1.2632527348610536</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>3</v>
@@ -17262,7 +17285,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>1.9237072779559783</v>
+        <v>1.3225487535947351</v>
       </c>
       <c r="G35">
         <v>-15</v>
@@ -17293,7 +17316,7 @@
       </c>
       <c r="Z35" s="4">
         <f t="shared" si="5"/>
-        <v>1.9237072779559783</v>
+        <v>1.3225487535947351</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>3</v>
@@ -17323,7 +17346,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>1.9976985402728298</v>
+        <v>1.3734177464375705</v>
       </c>
       <c r="G36">
         <v>-20</v>
@@ -17354,7 +17377,7 @@
       </c>
       <c r="Z36" s="4">
         <f t="shared" si="5"/>
-        <v>1.9976985402728298</v>
+        <v>1.3734177464375705</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>3</v>
@@ -17384,7 +17407,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>2.0594276320203981</v>
+        <v>1.4158564970140235</v>
       </c>
       <c r="G37">
         <v>-25</v>
@@ -17415,7 +17438,7 @@
       </c>
       <c r="Z37" s="4">
         <f t="shared" si="5"/>
-        <v>2.0594276320203981</v>
+        <v>1.4158564970140235</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>3</v>
@@ -17445,7 +17468,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>2.1099386549915997</v>
+        <v>1.4505828253067248</v>
       </c>
       <c r="G38">
         <v>-30</v>
@@ -17476,7 +17499,7 @@
       </c>
       <c r="Z38" s="4">
         <f t="shared" si="5"/>
-        <v>2.1099386549915997</v>
+        <v>1.4505828253067248</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
@@ -17506,7 +17529,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>2.1499242943663579</v>
+        <v>1.478072952376871</v>
       </c>
       <c r="G39">
         <v>-35</v>
@@ -17537,7 +17560,7 @@
       </c>
       <c r="Z39" s="4">
         <f t="shared" si="5"/>
-        <v>2.1499242943663579</v>
+        <v>1.478072952376871</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>3</v>
@@ -17566,8 +17589,8 @@
         <v>1950.0258237785354</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40" si="9">($B$2*E40)/($B$6+E40)</f>
-        <v>2.1813657245300986</v>
+        <f t="shared" si="2"/>
+        <v>1.4996889356144427</v>
       </c>
       <c r="G40">
         <v>-40</v>
@@ -17598,7 +17621,7 @@
       </c>
       <c r="Z40" s="4">
         <f t="shared" si="5"/>
-        <v>2.1813657245300986</v>
+        <v>1.4996889356144427</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>3</v>
@@ -17667,8 +17690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E139F-BBA8-45E6-8ABD-24B09CD87AA1}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17748,12 +17771,12 @@
         <v>0.26895474863756047</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E27" si="1">C2*$A$6/(C2+$A$6)</f>
+        <f>C2*$A$6/(C2+$A$6)</f>
         <v>10.59671191433462</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F27" si="2">($B$2*E2)/($B$6+E2)</f>
-        <v>0.26776439318198442</v>
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.18408802031261431</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -17784,7 +17807,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>0.26776439318198442</v>
+        <v>0.18408802031261431</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -17802,7 +17825,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3">
-        <f t="shared" ref="C3:C27" si="3">-0.3682*G3^2 + 36.465*G3 + 10.648</f>
+        <f t="shared" ref="C3:C27" si="1">-0.3682*G3^2 + 36.465*G3 + 10.648</f>
         <v>17.926272000000001</v>
       </c>
       <c r="D3">
@@ -17810,12 +17833,12 @@
         <v>0.42890086668912503</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E2:E27" si="2">C3*$A$6/(C3+$A$6)</f>
         <v>17.781383852961547</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.42588167627488838</v>
+        <f t="shared" ref="F3:F27" si="3">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.29279365243898575</v>
       </c>
       <c r="G3">
         <v>0.2</v>
@@ -17846,7 +17869,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z27" si="6">F3</f>
-        <v>0.42588167627488838</v>
+        <v>0.29279365243898575</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -17867,7 +17890,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25.175088000000002</v>
       </c>
       <c r="D4">
@@ -17875,12 +17898,12 @@
         <v>0.57225927357454043</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.890263197122405</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.566897089825531</v>
+        <f t="shared" si="3"/>
+        <v>0.38974174925505251</v>
       </c>
       <c r="G4">
         <v>0.4</v>
@@ -17911,7 +17934,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="6"/>
-        <v>0.566897089825531</v>
+        <v>0.38974174925505251</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -17935,7 +17958,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32.394447999999997</v>
       </c>
       <c r="D5">
@@ -17943,12 +17966,12 @@
         <v>0.7014801379115857</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.924369666771359</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.69343990125757649</v>
+        <f t="shared" si="3"/>
+        <v>0.47673993211458382</v>
       </c>
       <c r="G5">
         <v>0.6</v>
@@ -17979,7 +18002,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="6"/>
-        <v>0.69343990125757649</v>
+        <v>0.47673993211458382</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -18003,7 +18026,7 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39.584352000000003</v>
       </c>
       <c r="D6">
@@ -18011,12 +18034,12 @@
         <v>0.8185536987987394</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.884703905986221</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.80762666093825219</v>
+        <f t="shared" si="3"/>
+        <v>0.55524332939504839</v>
       </c>
       <c r="G6">
         <v>0.8</v>
@@ -18047,7 +18070,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="6"/>
-        <v>0.80762666093825219</v>
+        <v>0.55524332939504839</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -18064,8 +18087,11 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
       <c r="C7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46.744799999999998</v>
       </c>
       <c r="D7">
@@ -18073,12 +18099,12 @@
         <v>0.92511334686299052</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.772247920636111</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0.91118036965037696</v>
+        <f t="shared" si="3"/>
+        <v>0.62643650413463414</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -18109,7 +18135,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="6"/>
-        <v>0.91118036965037696</v>
+        <v>0.62643650413463414</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -18127,7 +18153,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>53.875792000000004</v>
       </c>
       <c r="D8">
@@ -18135,12 +18161,12 @@
         <v>1.0225121712170262</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.587965504001481</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1.0055178856557141</v>
+        <f t="shared" si="3"/>
+        <v>0.69129354638830354</v>
       </c>
       <c r="G8">
         <v>1.2</v>
@@ -18171,7 +18197,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>1.0055178856557141</v>
+        <v>0.69129354638830354</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -18189,7 +18215,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60.977328</v>
       </c>
       <c r="D9">
@@ -18197,12 +18223,12 @@
         <v>1.1118806130235275</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.332802650730521</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1.0918150268846707</v>
+        <f t="shared" si="3"/>
+        <v>0.75062283098321103</v>
       </c>
       <c r="G9">
         <v>1.4</v>
@@ -18233,7 +18259,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="6"/>
-        <v>1.0918150268846707</v>
+        <v>0.75062283098321103</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -18251,7 +18277,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>68.049408000000014</v>
       </c>
       <c r="D10">
@@ -18259,12 +18285,12 @@
         <v>1.194170451203973</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.007687959503244</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1.1710557378347966</v>
+        <f t="shared" si="3"/>
+        <v>0.80510081976142256</v>
       </c>
       <c r="G10">
         <v>1.6</v>
@@ -18295,7 +18321,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="6"/>
-        <v>1.1710557378347966</v>
+        <v>0.80510081976142256</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -18313,7 +18339,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75.092032000000017</v>
       </c>
       <c r="D11">
@@ -18321,12 +18347,12 @@
         <v>1.2701887568632226</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.613533024759874</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1.2440696934358426</v>
+        <f t="shared" si="3"/>
+        <v>0.85529791423714185</v>
       </c>
       <c r="G11">
         <v>1.8</v>
@@ -18357,7 +18383,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="6"/>
-        <v>1.2440696934358426</v>
+        <v>0.85529791423714185</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -18375,7 +18401,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>82.105199999999996</v>
       </c>
       <c r="D12">
@@ -18383,12 +18409,12 @@
         <v>1.3406243876951212</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.151232817838547</v>
       </c>
       <c r="F12">
-        <f>($B$2*E12)/($B$6+E12)</f>
-        <v>1.3115613928324668</v>
+        <f t="shared" si="3"/>
+        <v>0.90169845757232092</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -18419,7 +18445,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="6"/>
-        <v>1.3115613928324668</v>
+        <v>0.90169845757232092</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -18437,7 +18463,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>89.088912000000008</v>
       </c>
       <c r="D13">
@@ -18445,12 +18471,12 @@
         <v>1.4060688670090742</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.621666057853858</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1.3741329083065537</v>
+        <f t="shared" si="3"/>
+        <v>0.94471637446075563</v>
       </c>
       <c r="G13">
         <v>2.2000000000000002</v>
@@ -18481,7 +18507,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="6"/>
-        <v>1.3741329083065537</v>
+        <v>0.94471637446075563</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -18499,7 +18525,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>96.043168000000009</v>
       </c>
       <c r="D14">
@@ -18507,12 +18533,12 @@
         <v>1.4670329885182947</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.02569557263655</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1.4323018470450584</v>
+        <f t="shared" si="3"/>
+        <v>0.9847075198434776</v>
       </c>
       <c r="G14">
         <v>2.4</v>
@@ -18543,7 +18569,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="6"/>
-        <v>1.4323018470450584</v>
+        <v>0.9847075198434776</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -18561,7 +18587,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>102.96796800000001</v>
       </c>
       <c r="D15">
@@ -18569,12 +18595,12 @@
         <v>1.5239601340404196</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.364168650043524</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>1.486515661208865</v>
+        <f t="shared" si="3"/>
+        <v>1.0219795170810948</v>
       </c>
       <c r="G15">
         <v>2.6</v>
@@ -18605,7 +18631,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="6"/>
-        <v>1.486515661208865</v>
+        <v>1.0219795170810948</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -18623,7 +18649,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>109.86331199999999</v>
       </c>
       <c r="D16">
@@ -18631,12 +18657,12 @@
         <v>1.577237039027785</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.63791737993542</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>1.5371631440553475</v>
+        <f t="shared" si="3"/>
+        <v>1.0567996615380515</v>
       </c>
       <c r="G16">
         <v>2.8</v>
@@ -18667,7 +18693,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="6"/>
-        <v>1.5371631440553475</v>
+        <v>1.0567996615380515</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -18685,7 +18711,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>116.72920000000001</v>
       </c>
       <c r="D17">
@@ -18693,12 +18719,12 @@
         <v>1.6272025588731767</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110.84775898710993</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>1.5845837371888376</v>
+        <f t="shared" si="3"/>
+        <v>1.0894013193173258</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -18729,7 +18755,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="6"/>
-        <v>1.5845837371888376</v>
+        <v>1.0894013193173258</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -18747,7 +18773,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123.56563200000001</v>
       </c>
       <c r="D18">
@@ -18755,12 +18781,12 @@
         <v>1.6741548561333974</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116.99449615546735</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>1.6290751202077463</v>
+        <f t="shared" si="3"/>
+        <v>1.1199891451428257</v>
       </c>
       <c r="G18">
         <v>3.2</v>
@@ -18791,7 +18817,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="6"/>
-        <v>1.6290751202077463</v>
+        <v>1.1199891451428257</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -18809,7 +18835,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>130.37260800000001</v>
       </c>
       <c r="D19">
@@ -18817,12 +18843,12 @@
         <v>1.7183573308466715</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123.07891734367658</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>1.6708994415171088</v>
+        <f t="shared" si="3"/>
+        <v>1.1487433660430124</v>
       </c>
       <c r="G19">
         <v>3.4</v>
@@ -18853,7 +18879,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="6"/>
-        <v>1.6708994415171088</v>
+        <v>1.1487433660430124</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -18871,7 +18897,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>137.15012800000002</v>
       </c>
       <c r="D20">
@@ -18879,12 +18905,12 @@
         <v>1.7600435431243497</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.10179709259995</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>1.7102884659126212</v>
+        <f t="shared" si="3"/>
+        <v>1.1758233203149271</v>
       </c>
       <c r="G20">
         <v>3.6</v>
@@ -18915,7 +18941,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="6"/>
-        <v>1.7102884659126212</v>
+        <v>1.1758233203149271</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -18933,7 +18959,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>143.89819199999999</v>
       </c>
       <c r="D21">
@@ -18941,12 +18967,12 @@
         <v>1.7994213222953797</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.0638963247257</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
-        <v>1.7474478524555805</v>
+        <f t="shared" si="3"/>
+        <v>1.2013703985632116</v>
       </c>
       <c r="G21">
         <v>3.8</v>
@@ -18977,7 +19003,7 @@
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="6"/>
-        <v>1.7474478524555805</v>
+        <v>1.2013703985632116</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>3</v>
@@ -18995,7 +19021,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150.61680000000001</v>
       </c>
       <c r="D22">
@@ -19003,12 +19029,12 @@
         <v>1.8366762152238885</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140.96596263584948</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>1.782560729375362</v>
+        <f t="shared" si="3"/>
+        <v>1.2255105014455614</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -19039,7 +19065,7 @@
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="6"/>
-        <v>1.782560729375362</v>
+        <v>1.2255105014455614</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>3</v>
@@ -19057,7 +19083,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>157.30595200000002</v>
       </c>
       <c r="D23">
@@ -19065,12 +19091,12 @@
         <v>1.8719743945488769</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>146.80873057923711</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>1.8157906971773714</v>
+        <f t="shared" si="3"/>
+        <v>1.2483561043094429</v>
       </c>
       <c r="G23">
         <v>4.2</v>
@@ -19101,7 +19127,7 @@
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="6"/>
-        <v>1.8157906971773714</v>
+        <v>1.2483561043094429</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>3</v>
@@ -19119,7 +19145,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>163.96564800000002</v>
       </c>
       <c r="D24">
@@ -19127,12 +19153,12 @@
         <v>1.9054651230207957</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152.59292194249349</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>1.8472843638854988</v>
+        <f t="shared" si="3"/>
+        <v>1.2700080001712803</v>
       </c>
       <c r="G24">
         <v>4.4000000000000004</v>
@@ -19163,7 +19189,7 @@
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="6"/>
-        <v>1.8472843638854988</v>
+        <v>1.2700080001712803</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>3</v>
@@ -19181,7 +19207,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170.595888</v>
       </c>
       <c r="D25">
@@ -19189,12 +19215,12 @@
         <v>1.9372828510223101</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158.31924601735412</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1.8771734953057899</v>
+        <f t="shared" si="3"/>
+        <v>1.2905567780227307</v>
       </c>
       <c r="G25">
         <v>4.5999999999999996</v>
@@ -19225,7 +19251,7 @@
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="6"/>
-        <v>1.8771734953057899</v>
+        <v>1.2905567780227307</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>3</v>
@@ -19243,7 +19269,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>177.19667200000001</v>
       </c>
       <c r="D26">
@@ -19251,12 +19277,12 @@
         <v>1.967549009431707</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163.98839986260927</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>1.9055768468304308</v>
+        <f t="shared" si="3"/>
+        <v>1.3100840821959212</v>
       </c>
       <c r="G26">
         <v>4.8</v>
@@ -19287,7 +19313,7 @@
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="6"/>
-        <v>1.9055768468304308</v>
+        <v>1.3100840821959212</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>3</v>
@@ -19305,7 +19331,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>183.768</v>
       </c>
       <c r="D27">
@@ -19313,12 +19339,12 @@
         <v>1.9963735482341785</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169.60106856036325</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>1.9326017304820151</v>
+        <f t="shared" si="3"/>
+        <v>1.3286636897063855</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -19349,7 +19375,7 @@
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="6"/>
-        <v>1.9326017304820151</v>
+        <v>1.3286636897063855</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>3</v>

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185677A-7BAA-41DB-AF5B-598F5B2F4187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C3E38-E314-430F-82C0-373DEC052414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" firstSheet="3" activeTab="5" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -251,8 +251,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2673249855433063"/>
-                  <c:y val="-4.9377949226331527E-2"/>
+                  <c:x val="4.7691864078829353E-2"/>
+                  <c:y val="-0.376054005116361"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -289,10 +289,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Bosch 0261230340 oil + press'!$D$2:$D$19</c:f>
+              <c:f>'Bosch 0261230340 oil + press'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>4.972233282340368E-2</c:v>
                 </c:pt>
@@ -346,16 +346,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.7868316569613549</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9870712613994024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bosch 0261230340 oil + press'!$G$2:$G$19</c:f>
+              <c:f>'Bosch 0261230340 oil + press'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>140</c:v>
                 </c:pt>
@@ -409,6 +412,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,9 +429,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Alt voltage</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -455,8 +458,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3358115349982354E-2"/>
-                  <c:y val="-0.65673935951831042"/>
+                  <c:x val="5.9471777246250773E-2"/>
+                  <c:y val="-0.66587529768373632"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -496,10 +499,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Bosch 0261230340 oil + press'!$F$2:$F$19</c:f>
+              <c:f>'Bosch 0261230340 oil + press'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.14767862580655777</c:v>
                 </c:pt>
@@ -553,16 +556,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.5188546177250442</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5362243833902287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bosch 0261230340 oil + press'!$G$2:$G$19</c:f>
+              <c:f>'Bosch 0261230340 oil + press'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>140</c:v>
                 </c:pt>
@@ -616,6 +622,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8466,8 +8475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073A11A-77BF-49D7-89C7-360306EC7745}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8675,7 +8684,7 @@
         <v>107.75083214455539</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f>(($B$2*E4)/($B$6+E4))*$A$6/($A$6+$A$7)</f>
         <v>0.22068112551510985</v>
       </c>
       <c r="G4">
@@ -9757,7 +9766,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9957,7 +9966,7 @@
         <v>144</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D19" si="6">($B$2*C4)/($A$2+C4)</f>
+        <f t="shared" ref="D4:D19" si="6">($B$2*C4)/($A$2+C4)</f>
         <v>9.8100743187448394E-2</v>
       </c>
       <c r="E4">
@@ -17690,8 +17699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E139F-BBA8-45E6-8ABD-24B09CD87AA1}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17833,7 +17842,7 @@
         <v>0.42890086668912503</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E27" si="2">C3*$A$6/(C3+$A$6)</f>
+        <f t="shared" ref="E3:E27" si="2">C3*$A$6/(C3+$A$6)</f>
         <v>17.781383852961547</v>
       </c>
       <c r="F3">

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C3E38-E314-430F-82C0-373DEC052414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C774F03-2AEE-4A3F-82D9-8C968659F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -8476,7 +8476,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8620,7 +8620,7 @@
         <v>86.370583868291192</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <f>(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
         <v>0.18037423422626703</v>
       </c>
       <c r="G3">
@@ -8631,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T20" si="3">D3</f>
+        <f t="shared" ref="T3:T20" si="2">D3</f>
         <v>6.1936574876302226E-2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -8641,7 +8641,7 @@
         <v>9</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W20" si="4">G3</f>
+        <f t="shared" ref="W3:W20" si="3">G3</f>
         <v>130</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -8651,7 +8651,7 @@
         <v>8</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z20" si="5">F3</f>
+        <f t="shared" ref="Z3:Z20" si="4">F3</f>
         <v>0.18037423422626703</v>
       </c>
       <c r="AA3" s="2" t="s">
@@ -8661,7 +8661,7 @@
         <v>9</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC20" si="6">G3</f>
+        <f t="shared" ref="AC3:AC20" si="5">G3</f>
         <v>130</v>
       </c>
       <c r="AD3" s="2" t="s">
@@ -8680,7 +8680,7 @@
         <v>7.7678515779195142E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>C4*$A$6/(C4+$A$6)</f>
         <v>107.75083214455539</v>
       </c>
       <c r="F4">
@@ -8695,37 +8695,37 @@
         <v>8</v>
       </c>
       <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.7678515779195142E-2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="3"/>
-        <v>7.7678515779195142E-2</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="3">
+        <v>120</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="4">
+        <v>0.22068112551510985</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3">
         <f t="shared" si="5"/>
-        <v>0.22068112551510985</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="AD4" s="2" t="s">
@@ -8751,7 +8751,7 @@
         <v>135.59394327148647</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F3:F20" si="6">(($B$2*E5)/($B$6+E5))*$A$6/($A$6+$A$7)</f>
         <v>0.27089679424579322</v>
       </c>
       <c r="G5">
@@ -8762,37 +8762,37 @@
         <v>8</v>
       </c>
       <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8431210651253986E-2</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="3"/>
-        <v>9.8431210651253986E-2</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3">
+        <v>110</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="4">
+        <v>0.27089679424579322</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="5"/>
-        <v>0.27089679424579322</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="AD5" s="2" t="s">
@@ -8818,7 +8818,7 @@
         <v>172.01039135171374</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33297364789497769</v>
       </c>
       <c r="G6">
@@ -8829,37 +8829,37 @@
         <v>8</v>
       </c>
       <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12601399746244832</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="3"/>
-        <v>0.12601399746244832</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3">
+        <v>100</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="4">
+        <v>0.33297364789497769</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="5"/>
-        <v>0.33297364789497769</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="AD6" s="2" t="s">
@@ -8882,7 +8882,7 @@
         <v>219.63993453355155</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.40856984702093402</v>
       </c>
       <c r="G7">
@@ -8893,37 +8893,37 @@
         <v>8</v>
       </c>
       <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16286407766990291</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="3"/>
-        <v>0.16286407766990291</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="3">
+        <v>90</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="4">
+        <v>0.40856984702093402</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="5"/>
-        <v>0.40856984702093402</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="AD7" s="2" t="s">
@@ -8943,7 +8943,7 @@
         <v>281.95292066259805</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>(($B$2*E8)/($B$6+E8))*$A$6/($A$6+$A$7)</f>
         <v>0.49898922062023926</v>
       </c>
       <c r="G8">
@@ -8954,37 +8954,37 @@
         <v>8</v>
       </c>
       <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21244973523908109</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="3"/>
-        <v>0.21244973523908109</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="3">
+        <v>80</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="4">
+        <v>0.49898922062023926</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="5"/>
-        <v>0.49898922062023926</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="AD8" s="2" t="s">
@@ -9004,7 +9004,7 @@
         <v>363.11814490113477</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.60436748958704567</v>
       </c>
       <c r="G9">
@@ -9015,37 +9015,37 @@
         <v>8</v>
       </c>
       <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.27949327153401232</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="3"/>
-        <v>0.27949327153401232</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="3">
+        <v>70</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="4">
+        <v>0.60436748958704567</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="5"/>
-        <v>0.60436748958704567</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="AD9" s="2" t="s">
@@ -9065,7 +9065,7 @@
         <v>467.71653543307087</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.72298149141630885</v>
       </c>
       <c r="G10">
@@ -9076,37 +9076,37 @@
         <v>8</v>
       </c>
       <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37026822818284849</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="3"/>
-        <v>0.37026822818284849</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3">
+        <v>60</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="4">
+        <v>0.72298149141630885</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="5"/>
-        <v>0.72298149141630885</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="AD10" s="2" t="s">
@@ -9126,7 +9126,7 @@
         <v>599.47089947089944</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.85031218987760493</v>
       </c>
       <c r="G11">
@@ -9137,37 +9137,37 @@
         <v>8</v>
       </c>
       <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49225199131064445</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="3"/>
-        <v>0.49225199131064445</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
+        <v>50</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="4">
+        <v>0.85031218987760493</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="5"/>
-        <v>0.85031218987760493</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="AD11" s="2" t="s">
@@ -9187,7 +9187,7 @@
         <v>762.51856251856248</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>(($B$2*E12)/($B$6+E12))*$A$6/($A$6+$A$7)</f>
         <v>0.98152951435696933</v>
       </c>
       <c r="G12">
@@ -9198,37 +9198,37 @@
         <v>8</v>
       </c>
       <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6564002045338333</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="3"/>
-        <v>0.6564002045338333</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
+        <v>40</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="4">
+        <v>0.98152951435696933</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="5"/>
-        <v>0.98152951435696933</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AD12" s="2" t="s">
@@ -9248,7 +9248,7 @@
         <v>953.5410764872521</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1073974042923433</v>
       </c>
       <c r="G13">
@@ -9259,37 +9259,37 @@
         <v>8</v>
       </c>
       <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.87010809963966784</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="3"/>
-        <v>0.87010809963966784</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3">
+        <v>30</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="4">
+        <v>1.1073974042923433</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="5"/>
-        <v>1.1073974042923433</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AD13" s="2" t="s">
@@ -9309,7 +9309,7 @@
         <v>1165.8119658119658</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f>(($B$2*E14)/($B$6+E14))*$A$6/($A$6+$A$7)</f>
         <v>1.2212213891081294</v>
       </c>
       <c r="G14">
@@ -9320,37 +9320,37 @@
         <v>8</v>
       </c>
       <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.13983286908078</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="3">
         <f t="shared" si="3"/>
-        <v>1.13983286908078</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="3">
+        <v>20</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="4">
+        <v>1.2212213891081294</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="5"/>
-        <v>1.2212213891081294</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AD14" s="2" t="s">
@@ -9370,7 +9370,7 @@
         <v>1385.1851851851852</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3175659937888198</v>
       </c>
       <c r="G15">
@@ -9381,37 +9381,37 @@
         <v>8</v>
       </c>
       <c r="T15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4623222748815166</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="3"/>
-        <v>1.4623222748815166</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="3">
+        <v>10</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="4">
+        <v>1.3175659937888198</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="5"/>
-        <v>1.3175659937888198</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -9431,7 +9431,7 @@
         <v>1593.7875751503007</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3940638762265316</v>
       </c>
       <c r="G16">
@@ -9442,37 +9442,37 @@
         <v>8</v>
       </c>
       <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8206028233498666</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="3">
         <f t="shared" si="3"/>
-        <v>1.8206028233498666</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="4">
+        <v>1.3940638762265316</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="5"/>
-        <v>1.3940638762265316</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD16" s="2" t="s">
@@ -9492,7 +9492,7 @@
         <v>1775.2523036419482</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4512567591070076</v>
       </c>
       <c r="G17">
@@ -9503,37 +9503,37 @@
         <v>8</v>
       </c>
       <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1837711406980929</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="3">
         <f t="shared" si="3"/>
-        <v>2.1837711406980929</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="3">
+        <v>-10</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="4">
+        <v>1.4512567591070076</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="5"/>
-        <v>1.4512567591070076</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="AD17" s="2" t="s">
@@ -9553,7 +9553,7 @@
         <v>1919.696530955001</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4917000648624201</v>
       </c>
       <c r="G18">
@@ -9564,37 +9564,37 @@
         <v>8</v>
       </c>
       <c r="T18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5153589315525875</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="3"/>
-        <v>2.5153589315525875</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="3">
+        <v>-20</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4">
         <f t="shared" si="4"/>
-        <v>-20</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="4">
+        <v>1.4917000648624201</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="5"/>
-        <v>1.4917000648624201</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="6"/>
         <v>-20</v>
       </c>
       <c r="AD18" s="2" t="s">
@@ -9614,7 +9614,7 @@
         <v>2025.4220170249603</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5188546177250442</v>
       </c>
       <c r="G19">
@@ -9625,37 +9625,37 @@
         <v>8</v>
       </c>
       <c r="T19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7868316569613549</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="3"/>
-        <v>2.7868316569613549</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="3">
+        <v>-30</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="4">
         <f t="shared" si="4"/>
-        <v>-30</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="4">
+        <v>1.5188546177250442</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="5"/>
-        <v>1.5188546177250442</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
       <c r="AD19" s="2" t="s">
@@ -9675,7 +9675,7 @@
         <v>2097.1613122556519</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5362243833902287</v>
       </c>
       <c r="G20">
@@ -9686,17 +9686,17 @@
         <v>8</v>
       </c>
       <c r="T20" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9870712613994024</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="3"/>
-        <v>2.9870712613994024</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="4"/>
         <v>-40</v>
       </c>
       <c r="X20" s="2" t="s">
@@ -9706,17 +9706,17 @@
         <v>8</v>
       </c>
       <c r="Z20" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5362243833902287</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="3">
         <f t="shared" si="5"/>
-        <v>1.5362243833902287</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="6"/>
         <v>-40</v>
       </c>
       <c r="AD20" s="2" t="s">
@@ -9766,7 +9766,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10355,7 +10355,7 @@
         <v>661.57659890927118</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f>(($B$2*E10)/($B$6+E10))*$A$6/($A$6+$A$7)</f>
         <v>0.90332995166199215</v>
       </c>
       <c r="G10">
@@ -10416,7 +10416,7 @@
         <v>859.42857142857144</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>(($B$2*E11)/($B$6+E11))*$A$6/($A$6+$A$7)</f>
         <v>1.048617086662569</v>
       </c>
       <c r="G11">

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E6D6F-3D76-42E8-9D91-6F5BEC08A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ACFB3E-9C90-45CD-B206-9769DF207CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29880" windowHeight="21000" firstSheet="3" activeTab="7" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" firstSheet="6" activeTab="7" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -113,9 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -184,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,6 +204,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5347,6 +5352,9 @@
                 <c:pt idx="14">
                   <c:v>3.2717166179658337</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2849060212042871</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5401,7 +5409,7 @@
                 <c:pt idx="14">
                   <c:v>-30</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="General">
                   <c:v>-39.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -5536,6 +5544,9 @@
                 <c:pt idx="14">
                   <c:v>1.7172606482972572</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7225409603660631</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5590,7 +5601,7 @@
                 <c:pt idx="14">
                   <c:v>-30</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="General">
                   <c:v>-39.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -23311,7 +23322,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23328,12 +23339,12 @@
     <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -23365,7 +23376,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
         <v>17</v>
@@ -23373,7 +23384,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="3"/>
+      <c r="AC1" s="12"/>
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -23384,7 +23395,6 @@
         <v>3.3</v>
       </c>
       <c r="C2" s="9">
-        <f>C26</f>
         <v>149.41182456497407</v>
       </c>
       <c r="D2" s="10">
@@ -23416,7 +23426,7 @@
       <c r="V2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="12">
         <f>G2</f>
         <v>142.5</v>
       </c>
@@ -23436,7 +23446,7 @@
       <c r="AB2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="12">
         <f>G2</f>
         <v>142.5</v>
       </c>
@@ -23446,15 +23456,14 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C16" si="0">C27</f>
         <v>349.14693326522422</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D16" si="1">($B$2*C3)/($A$2+C3)</f>
+        <f t="shared" ref="D3:D16" si="0">($B$2*C3)/($A$2+C3)</f>
         <v>0.85400993128799241</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E16" si="2">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <f t="shared" ref="E3:E16" si="1">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
         <v>314.79964269070882</v>
       </c>
       <c r="F3" s="11">
@@ -23469,7 +23478,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T20" si="3">D3</f>
+        <f t="shared" ref="T3:T20" si="2">D3</f>
         <v>0.85400993128799241</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -23478,8 +23487,8 @@
       <c r="V3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="3">
-        <f t="shared" ref="W3:W20" si="4">G3</f>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W20" si="3">G3</f>
         <v>110.25</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -23489,7 +23498,7 @@
         <v>8</v>
       </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z20" si="5">F3</f>
+        <f t="shared" ref="Z3:Z20" si="4">F3</f>
         <v>0.54320191926197003</v>
       </c>
       <c r="AA3" s="2" t="s">
@@ -23498,8 +23507,8 @@
       <c r="AB3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC20" si="6">G3</f>
+      <c r="AC3" s="12">
+        <f t="shared" ref="AC3:AC20" si="5">G3</f>
         <v>110.25</v>
       </c>
       <c r="AD3" s="2" t="s">
@@ -23511,15 +23520,14 @@
         <v>13</v>
       </c>
       <c r="C4" s="9">
+        <v>464.21325385827305</v>
+      </c>
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>464.21325385827305</v>
-      </c>
-      <c r="D4" s="10">
+        <v>1.046229935219928</v>
+      </c>
+      <c r="E4" s="9">
         <f t="shared" si="1"/>
-        <v>1.046229935219928</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="2"/>
         <v>405.40282713685366</v>
       </c>
       <c r="F4" s="11">
@@ -23534,37 +23542,37 @@
         <v>8</v>
       </c>
       <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.046229935219928</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="12">
         <f t="shared" si="3"/>
-        <v>1.046229935219928</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>100.5</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="4">
+        <v>0.65444415388042598</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="12">
         <f t="shared" si="5"/>
-        <v>0.65444415388042598</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="6"/>
         <v>100.5</v>
       </c>
       <c r="AD4" s="2" t="s">
@@ -23579,15 +23587,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
         <v>626.61393038811229</v>
       </c>
       <c r="D5" s="10">
+        <f>($B$2*C5)/($A$2+C5)</f>
+        <v>1.2712457035133005</v>
+      </c>
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
-        <v>1.2712457035133005</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="2"/>
         <v>524.00493326970843</v>
       </c>
       <c r="F5" s="11">
@@ -23602,37 +23609,37 @@
         <v>8</v>
       </c>
       <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2712457035133005</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="12">
         <f t="shared" si="3"/>
-        <v>1.2712457035133005</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3">
+        <v>90.75</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>90.75</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="4">
+        <v>0.78007371656273927</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="12">
         <f t="shared" si="5"/>
-        <v>0.78007371656273927</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="6"/>
         <v>90.75</v>
       </c>
       <c r="AD5" s="2" t="s">
@@ -23647,7 +23654,6 @@
         <v>1000</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="0"/>
         <v>859.87192457541369</v>
       </c>
       <c r="D6" s="10">
@@ -23655,11 +23661,11 @@
         <v>1.5256842762152292</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>677.75294633933277</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" ref="F6:F16" si="7">(($B$2*E6)/($B$6+E6))*$A$6/($A$6+$A$7)</f>
+        <f t="shared" ref="F6:F16" si="6">(($B$2*E6)/($B$6+E6))*$A$6/($A$6+$A$7)</f>
         <v>0.91649488702275506</v>
       </c>
       <c r="G6" s="9">
@@ -23670,37 +23676,37 @@
         <v>8</v>
       </c>
       <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5256842762152292</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="12">
         <f t="shared" si="3"/>
-        <v>1.5256842762152292</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3">
+        <v>80.25</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>80.25</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="4">
+        <v>0.91649488702275506</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="12">
         <f t="shared" si="5"/>
-        <v>0.91649488702275506</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="6"/>
         <v>80.25</v>
       </c>
       <c r="AD6" s="2" t="s">
@@ -23712,7 +23718,6 @@
         <v>1000</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="0"/>
         <v>1198.932609571669</v>
       </c>
       <c r="D7" s="10">
@@ -23720,7 +23725,7 @@
         <v>1.7992718805317056</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>872.16256559177327</v>
       </c>
       <c r="F7" s="11">
@@ -23735,37 +23740,37 @@
         <v>8</v>
       </c>
       <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7992718805317056</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="12">
         <f t="shared" si="3"/>
-        <v>1.7992718805317056</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>70.5</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="4">
+        <v>1.0569161338085407</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="12">
         <f t="shared" si="5"/>
-        <v>1.0569161338085407</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="6"/>
         <v>70.5</v>
       </c>
       <c r="AD7" s="2" t="s">
@@ -23774,15 +23779,14 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C8" s="9">
+        <v>1702.0321086089859</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>1702.0321086089859</v>
-      </c>
-      <c r="D8" s="10">
+        <v>2.0786969705186626</v>
+      </c>
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>2.0786969705186626</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="2"/>
         <v>1111.0703942521236</v>
       </c>
       <c r="F8" s="11">
@@ -23797,37 +23801,37 @@
         <v>8</v>
       </c>
       <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0786969705186626</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="12">
         <f t="shared" si="3"/>
-        <v>2.0786969705186626</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="3">
+        <v>60.75</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>60.75</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="4">
+        <v>1.1940582198598417</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="12">
         <f t="shared" si="5"/>
-        <v>1.1940582198598417</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="6"/>
         <v>60.75</v>
       </c>
       <c r="AD8" s="2" t="s">
@@ -23836,19 +23840,18 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
+        <v>2458.1733490191091</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>2458.1733490191091</v>
-      </c>
-      <c r="D9" s="10">
+        <v>2.3457389879151007</v>
+      </c>
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
-        <v>2.3457389879151007</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="2"/>
         <v>1390.2286536033421</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3195730262490617</v>
       </c>
       <c r="G9" s="9">
@@ -23859,37 +23862,37 @@
         <v>8</v>
       </c>
       <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3457389879151007</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="12">
         <f t="shared" si="3"/>
-        <v>2.3457389879151007</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="3">
+        <v>50.25</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>50.25</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="4">
+        <v>1.3195730262490617</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="12">
         <f t="shared" si="5"/>
-        <v>1.3195730262490617</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="6"/>
         <v>50.25</v>
       </c>
       <c r="AD9" s="2" t="s">
@@ -23898,19 +23901,18 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C10" s="9">
+        <v>5492.8161066940238</v>
+      </c>
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>5492.8161066940238</v>
-      </c>
-      <c r="D10" s="10">
+        <v>2.7917459626497454</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>2.7917459626497454</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="2"/>
         <v>2022.0158031279941</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.518009385853744</v>
       </c>
       <c r="G10" s="9">
@@ -23921,37 +23923,37 @@
         <v>8</v>
       </c>
       <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7917459626497454</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12">
         <f t="shared" si="3"/>
-        <v>2.7917459626497454</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3">
+        <v>30</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="4">
+        <v>1.518009385853744</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="12">
         <f t="shared" si="5"/>
-        <v>1.518009385853744</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AD10" s="2" t="s">
@@ -23960,19 +23962,18 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
+        <v>8526.1393077086414</v>
+      </c>
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>8526.1393077086414</v>
-      </c>
-      <c r="D11" s="10">
+        <v>2.9535847426323474</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>2.9535847426323474</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="2"/>
         <v>2326.7373061764383</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5867755033098563</v>
       </c>
       <c r="G11" s="9">
@@ -23983,37 +23984,37 @@
         <v>8</v>
       </c>
       <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9535847426323474</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="12">
         <f t="shared" si="3"/>
-        <v>2.9535847426323474</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
+        <v>20.25</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>20.25</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="4">
+        <v>1.5867755033098563</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="12">
         <f t="shared" si="5"/>
-        <v>1.5867755033098563</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="6"/>
         <v>20.25</v>
       </c>
       <c r="AD11" s="2" t="s">
@@ -24022,15 +24023,14 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C12" s="9">
+        <v>13596.934050031003</v>
+      </c>
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>13596.934050031003</v>
-      </c>
-      <c r="D12" s="10">
+        <v>3.0739251277912709</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>3.0739251277912709</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="2"/>
         <v>2590.3649338921405</v>
       </c>
       <c r="F12" s="11">
@@ -24045,37 +24045,37 @@
         <v>8</v>
       </c>
       <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0739251277912709</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="12">
         <f t="shared" si="3"/>
-        <v>3.0739251277912709</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>10.5</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="4">
+        <v>1.6368504461180056</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="12">
         <f t="shared" si="5"/>
-        <v>1.6368504461180056</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
       <c r="AD12" s="2" t="s">
@@ -24084,19 +24084,18 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" s="9">
+        <v>22138.105712928755</v>
+      </c>
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>22138.105712928755</v>
-      </c>
-      <c r="D13" s="10">
+        <v>3.1573781258957561</v>
+      </c>
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>3.1573781258957561</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="2"/>
         <v>2795.8656058974825</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.6710602407853596</v>
       </c>
       <c r="G13" s="9">
@@ -24107,37 +24106,37 @@
         <v>8</v>
       </c>
       <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1573781258957561</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="12">
         <f t="shared" si="3"/>
-        <v>3.1573781258957561</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="4">
+        <v>1.6710602407853596</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="12">
         <f t="shared" si="5"/>
-        <v>1.6710602407853596</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
@@ -24146,15 +24145,14 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
+        <v>37629.876256767217</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>37629.876256767217</v>
-      </c>
-      <c r="D14" s="10">
+        <v>3.214573891511705</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>3.214573891511705</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="2"/>
         <v>2949.2032565662553</v>
       </c>
       <c r="F14" s="11">
@@ -24169,37 +24167,37 @@
         <v>8</v>
       </c>
       <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>3.214573891511705</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="12">
         <f t="shared" si="3"/>
-        <v>3.214573891511705</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="3">
+        <v>-9.75</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="4"/>
-        <v>-9.75</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="4">
+        <v>1.6942670340428037</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="12">
         <f t="shared" si="5"/>
-        <v>1.6942670340428037</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="6"/>
         <v>-9.75</v>
       </c>
       <c r="AD14" s="2" t="s">
@@ -24208,19 +24206,18 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C15" s="9">
+        <v>65379.603139991261</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>65379.603139991261</v>
-      </c>
-      <c r="D15" s="10">
+        <v>3.2502859335714849</v>
+      </c>
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
-        <v>3.2502859335714849</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="2"/>
         <v>3050.6844669384109</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7086594724564494</v>
       </c>
       <c r="G15" s="9">
@@ -24231,37 +24228,37 @@
         <v>8</v>
       </c>
       <c r="T15" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2502859335714849</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="12">
         <f t="shared" si="3"/>
-        <v>3.2502859335714849</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="3">
+        <v>-20.25</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="4"/>
-        <v>-20.25</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="4">
+        <v>1.7086594724564494</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="12">
         <f t="shared" si="5"/>
-        <v>1.7086594724564494</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="6"/>
         <v>-20.25</v>
       </c>
       <c r="AD15" s="2" t="s">
@@ -24270,19 +24267,18 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
+        <v>115676.2870159452</v>
+      </c>
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
-        <v>115676.2870159452</v>
-      </c>
-      <c r="D16" s="10">
+        <v>3.2717166179658337</v>
+      </c>
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>3.2717166179658337</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="2"/>
         <v>3113.8600282945708</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7172606482972572</v>
       </c>
       <c r="G16" s="9">
@@ -24293,46 +24289,60 @@
         <v>8</v>
       </c>
       <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2717166179658337</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="12">
         <f t="shared" si="3"/>
-        <v>3.2717166179658337</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="3">
+        <v>-30</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="4"/>
+        <v>1.7172606482972572</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="12">
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="5"/>
-        <v>1.7172606482972572</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="6"/>
-        <v>-30</v>
-      </c>
       <c r="AD16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="G17" s="9">
+      <c r="C17" s="9">
+        <v>217630.22630834449</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17" si="7">($B$2*C17)/($A$2+C17)</f>
+        <v>3.2849060212042871</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" ref="E17" si="8">C17*($A$6+$A$7)/(C17+$A$6+$A$7)</f>
+        <v>3153.6295362678211</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" ref="F17" si="9">(($B$2*E17)/($B$6+E17))*$A$6/($A$6+$A$7)</f>
+        <v>1.7225409603660631</v>
+      </c>
+      <c r="G17">
         <v>-39.75</v>
       </c>
       <c r="R17" s="2"/>
@@ -24340,37 +24350,37 @@
         <v>8</v>
       </c>
       <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2849060212042871</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="3">
+        <v>-39.75</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="4"/>
-        <v>-39.75</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="4">
+        <v>1.7225409603660631</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="6"/>
         <v>-39.75</v>
       </c>
       <c r="AD17" s="2" t="s">
@@ -24385,37 +24395,37 @@
         <v>8</v>
       </c>
       <c r="T18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="s">
@@ -24430,37 +24440,37 @@
         <v>8</v>
       </c>
       <c r="T19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="3">
+      <c r="X19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD19" s="2" t="s">
@@ -24475,37 +24485,37 @@
         <v>8</v>
       </c>
       <c r="T20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="4">
+      <c r="AA20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="s">
@@ -24521,7 +24531,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="3"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2" t="s">
         <v>7</v>
@@ -24529,7 +24539,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="3"/>
+      <c r="AC21" s="12"/>
       <c r="AD21" s="2"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -24620,7 +24630,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f>($A$26*D30)/($B$26-D30)</f>
+        <f t="shared" ref="C26:C41" si="10">($A$26*D30)/($B$26-D30)</f>
         <v>859.87192457541369</v>
       </c>
       <c r="D30">
@@ -24632,7 +24642,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f>($A$26*D31)/($B$26-D31)</f>
+        <f t="shared" si="10"/>
         <v>1198.932609571669</v>
       </c>
       <c r="D31">
@@ -24644,7 +24654,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f>($A$26*D32)/($B$26-D32)</f>
+        <f t="shared" si="10"/>
         <v>1702.0321086089859</v>
       </c>
       <c r="D32">
@@ -24656,7 +24666,7 @@
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f>($A$26*D33)/($B$26-D33)</f>
+        <f t="shared" si="10"/>
         <v>2458.1733490191091</v>
       </c>
       <c r="D33">
@@ -24668,7 +24678,7 @@
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f>($A$26*D34)/($B$26-D34)</f>
+        <f t="shared" si="10"/>
         <v>5492.8161066940238</v>
       </c>
       <c r="D34">
@@ -24681,7 +24691,7 @@
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f>($A$26*D35)/($B$26-D35)</f>
+        <f t="shared" si="10"/>
         <v>8526.1393077086414</v>
       </c>
       <c r="D35">
@@ -24693,7 +24703,7 @@
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f>($A$26*D36)/($B$26-D36)</f>
+        <f t="shared" si="10"/>
         <v>13596.934050031003</v>
       </c>
       <c r="D36">
@@ -24705,7 +24715,7 @@
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f>($A$26*D37)/($B$26-D37)</f>
+        <f t="shared" si="10"/>
         <v>22138.105712928755</v>
       </c>
       <c r="D37">
@@ -24718,7 +24728,7 @@
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f>($A$26*D38)/($B$26-D38)</f>
+        <f t="shared" si="10"/>
         <v>37629.876256767217</v>
       </c>
       <c r="D38">
@@ -24730,7 +24740,7 @@
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f>($A$26*D39)/($B$26-D39)</f>
+        <f t="shared" si="10"/>
         <v>65379.603139991261</v>
       </c>
       <c r="D39">
@@ -24742,7 +24752,7 @@
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f>($A$26*D40)/($B$26-D40)</f>
+        <f t="shared" si="10"/>
         <v>115676.2870159452</v>
       </c>
       <c r="D40">
@@ -24755,7 +24765,7 @@
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f>($A$26*D41)/($B$26-D41)</f>
+        <f t="shared" si="10"/>
         <v>217630.22630834449</v>
       </c>
       <c r="D41">

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorek\Documents\PlatformIO\Projects\gauge.s-sorek.uk\documents\useful\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programming\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ACFB3E-9C90-45CD-B206-9769DF207CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB0AA5-BFBE-44D0-9DAC-B8567FF76F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="0" windowWidth="21720" windowHeight="21000" firstSheet="6" activeTab="7" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="30165" yWindow="-15" windowWidth="21555" windowHeight="21015" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0261230340 oil + press" sheetId="12" r:id="rId1"/>
@@ -229,7 +229,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -320,7 +320,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -530,7 +530,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -542,61 +542,61 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.14905681928509013</c:v>
+                  <c:v>0.27491469383262346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18243449482611149</c:v>
+                  <c:v>0.33206022399058982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22377294020991007</c:v>
+                  <c:v>0.4007897315409753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27557067430192544</c:v>
+                  <c:v>0.48386717371701882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34006305664052694</c:v>
+                  <c:v>0.58285254052212165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41929558795682637</c:v>
+                  <c:v>0.69817597073985904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51508112709179765</c:v>
+                  <c:v>0.82910953897395789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62813563098568015</c:v>
+                  <c:v>0.97285300567343058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75725925405633188</c:v>
+                  <c:v>1.1242784964570069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89812635118904627</c:v>
+                  <c:v>1.2757920597819594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0457970227368107</c:v>
+                  <c:v>1.4211726105707054</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1898973569912157</c:v>
+                  <c:v>1.5513825033995983</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3223266745005873</c:v>
+                  <c:v>1.6620633631194153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4360270784852969</c:v>
+                  <c:v>1.7509318131988596</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.527375894779724</c:v>
+                  <c:v>1.8185654446996704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5963007245510414</c:v>
+                  <c:v>1.8675299933278222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6453687798391732</c:v>
+                  <c:v>1.9013616586798987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6784682719690438</c:v>
+                  <c:v>1.9237190691115296</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6997060984570167</c:v>
+                  <c:v>1.9378724473671181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -802,7 +802,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -843,7 +843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -857,7 +857,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -948,7 +948,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1155,7 +1155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1359,7 +1359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -1421,7 +1421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -1462,7 +1462,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1476,7 +1476,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1567,7 +1567,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1780,7 +1780,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1990,7 +1990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -2052,7 +2052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -2093,7 +2093,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2107,7 +2107,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2197,7 +2197,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2563,7 +2563,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2929,7 +2929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -2991,7 +2991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -3032,7 +3032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3046,7 +3046,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3136,7 +3136,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3463,7 +3463,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3793,7 +3793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -3855,7 +3855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -3896,7 +3896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3910,7 +3910,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4001,7 +4001,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4256,7 +4256,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4508,7 +4508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -4570,7 +4570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -4611,7 +4611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4625,7 +4625,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4716,7 +4716,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4902,7 +4902,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5088,7 +5088,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -5150,7 +5150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -5191,7 +5191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5205,7 +5205,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5296,7 +5296,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5488,7 +5488,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5680,7 +5680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="789408384"/>
@@ -5742,7 +5742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646701888"/>
@@ -5783,7 +5783,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10883,8 +10883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073A11A-77BF-49D7-89C7-360306EC7745}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F2" s="11">
         <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
-        <v>0.14905681928509013</v>
+        <v>0.27491469383262346</v>
       </c>
       <c r="G2" s="9">
         <v>140</v>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="Z2" s="4">
         <f>F2</f>
-        <v>0.14905681928509013</v>
+        <v>0.27491469383262346</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="F3" s="11">
         <f>(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
-        <v>0.18243449482611149</v>
+        <v>0.33206022399058982</v>
       </c>
       <c r="G3" s="9">
         <v>130</v>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z20" si="4">F3</f>
-        <v>0.18243449482611149</v>
+        <v>0.33206022399058982</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>3</v>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="F4" s="11">
         <f>(($B$2*E4)/($B$6+E4))*$A$6/($A$6+$A$7)</f>
-        <v>0.22377294020991007</v>
+        <v>0.4007897315409753</v>
       </c>
       <c r="G4" s="9">
         <v>120</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>0.22377294020991007</v>
+        <v>0.4007897315409753</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="F5" s="11">
         <f>(($B$2*E5)/($B$6+E5))*$A$6/($A$6+$A$7)</f>
-        <v>0.27557067430192544</v>
+        <v>0.48386717371701882</v>
       </c>
       <c r="G5" s="9">
         <v>110</v>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>0.27557067430192544</v>
+        <v>0.48386717371701882</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>3</v>
@@ -11213,7 +11213,7 @@
         <v>2200</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="C6" s="9">
         <v>186.6</v>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" ref="F6:F20" si="6">(($B$2*E6)/($B$6+E6))*$A$6/($A$6+$A$7)</f>
-        <v>0.34006305664052694</v>
+        <v>0.58285254052212165</v>
       </c>
       <c r="G6" s="9">
         <v>100</v>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>0.34006305664052694</v>
+        <v>0.58285254052212165</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>3</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="F7" s="11">
         <f>(($B$2*E7)/($B$6+E7))*$A$6/($A$6+$A$7)</f>
-        <v>0.41929558795682637</v>
+        <v>0.69817597073985904</v>
       </c>
       <c r="G7" s="9">
         <v>90</v>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>0.41929558795682637</v>
+        <v>0.69817597073985904</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="F8" s="11">
         <f>(($B$2*E8)/($B$6+E8))*$A$6/($A$6+$A$7)</f>
-        <v>0.51508112709179765</v>
+        <v>0.82910953897395789</v>
       </c>
       <c r="G8" s="9">
         <v>80</v>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>0.51508112709179765</v>
+        <v>0.82910953897395789</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>3</v>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="6"/>
-        <v>0.62813563098568015</v>
+        <v>0.97285300567343058</v>
       </c>
       <c r="G9" s="9">
         <v>70</v>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>0.62813563098568015</v>
+        <v>0.97285300567343058</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>3</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="6"/>
-        <v>0.75725925405633188</v>
+        <v>1.1242784964570069</v>
       </c>
       <c r="G10" s="9">
         <v>60</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>0.75725925405633188</v>
+        <v>1.1242784964570069</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>3</v>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="6"/>
-        <v>0.89812635118904627</v>
+        <v>1.2757920597819594</v>
       </c>
       <c r="G11" s="9">
         <v>50</v>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>0.89812635118904627</v>
+        <v>1.2757920597819594</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>3</v>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="F12" s="11">
         <f>(($B$2*E12)/($B$6+E12))*$A$6/($A$6+$A$7)</f>
-        <v>1.0457970227368107</v>
+        <v>1.4211726105707054</v>
       </c>
       <c r="G12" s="9">
         <v>40</v>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>1.0457970227368107</v>
+        <v>1.4211726105707054</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>3</v>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="6"/>
-        <v>1.1898973569912157</v>
+        <v>1.5513825033995983</v>
       </c>
       <c r="G13" s="9">
         <v>30</v>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>1.1898973569912157</v>
+        <v>1.5513825033995983</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>3</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="F14" s="11">
         <f>(($B$2*E14)/($B$6+E14))*$A$6/($A$6+$A$7)</f>
-        <v>1.3223266745005873</v>
+        <v>1.6620633631194153</v>
       </c>
       <c r="G14" s="9">
         <v>20</v>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="4"/>
-        <v>1.3223266745005873</v>
+        <v>1.6620633631194153</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>3</v>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="6"/>
-        <v>1.4360270784852969</v>
+        <v>1.7509318131988596</v>
       </c>
       <c r="G15" s="9">
         <v>10</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="4"/>
-        <v>1.4360270784852969</v>
+        <v>1.7509318131988596</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>3</v>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="6"/>
-        <v>1.527375894779724</v>
+        <v>1.8185654446996704</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="4"/>
-        <v>1.527375894779724</v>
+        <v>1.8185654446996704</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>3</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="6"/>
-        <v>1.5963007245510414</v>
+        <v>1.8675299933278222</v>
       </c>
       <c r="G17" s="9">
         <v>-10</v>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="4"/>
-        <v>1.5963007245510414</v>
+        <v>1.8675299933278222</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>3</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="6"/>
-        <v>1.6453687798391732</v>
+        <v>1.9013616586798987</v>
       </c>
       <c r="G18" s="9">
         <v>-20</v>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="4"/>
-        <v>1.6453687798391732</v>
+        <v>1.9013616586798987</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>3</v>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="6"/>
-        <v>1.6784682719690438</v>
+        <v>1.9237190691115296</v>
       </c>
       <c r="G19" s="9">
         <v>-30</v>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="4"/>
-        <v>1.6784682719690438</v>
+        <v>1.9237190691115296</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>3</v>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="6"/>
-        <v>1.6997060984570167</v>
+        <v>1.9378724473671181</v>
       </c>
       <c r="G20" s="9">
         <v>-40</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="4"/>
-        <v>1.6997060984570167</v>
+        <v>1.9378724473671181</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>3</v>
@@ -23321,7 +23321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3352653-DA5C-4691-9AF3-58B474D2357C}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -24630,7 +24630,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" ref="C26:C41" si="10">($A$26*D30)/($B$26-D30)</f>
+        <f t="shared" ref="C30:C41" si="10">($A$26*D30)/($B$26-D30)</f>
         <v>859.87192457541369</v>
       </c>
       <c r="D30">

--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programming\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6222893D-3D11-4ACE-B797-E0D8E1E6B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6F1C9-9C57-40E4-BD17-A069C95D62F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="-15" windowWidth="21555" windowHeight="21135" activeTab="1" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="30165" yWindow="-15" windowWidth="21555" windowHeight="21135" firstSheet="7" activeTab="9" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0280130026 oil temp" sheetId="11" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Bosch 0280130023 oil temp" sheetId="10" r:id="rId4"/>
     <sheet name="VDO A2C1755410001 oil temp" sheetId="6" r:id="rId5"/>
     <sheet name="VDO 323-801-001-00 coolant temp" sheetId="7" r:id="rId6"/>
-    <sheet name="VDO 360-081-029-001K pressure" sheetId="9" r:id="rId7"/>
-    <sheet name="Random oil sensor" sheetId="14" r:id="rId8"/>
-    <sheet name="Bosch E36 coolant sensor" sheetId="16" r:id="rId9"/>
+    <sheet name="Random oil sensor" sheetId="14" r:id="rId7"/>
+    <sheet name="Bosch E36 coolant sensor" sheetId="16" r:id="rId8"/>
+    <sheet name="VDO 360-081-029-001K pressure" sheetId="9" r:id="rId9"/>
+    <sheet name="27 NPT 3-160 pressure" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="28">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -114,6 +115,9 @@
   </si>
   <si>
     <t>https://vdo-webshop.nl/en/pressure-senders/317-vdo-pressure-sender-0-10-bar-m14-4103590300287.html</t>
+  </si>
+  <si>
+    <t>https://www.prosportgauges.co.uk/shop/oil-pressure-sensor-3-160-ohms</t>
   </si>
 </sst>
 </file>
@@ -669,6 +673,721 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A34C-48B8-B8DE-674378DC99E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="646701888"/>
+        <c:axId val="789408384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="646701888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789408384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="789408384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646701888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'27 NPT 3-160 pressure'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure (Bar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.36353874409432813"/>
+                  <c:y val="4.713518893226832E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="31750">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'27 NPT 3-160 pressure'!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.2673267326732675E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1968503937007873E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1037181996086093E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9883268482490258E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10851063829787233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14512428298279156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16311787072243344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18090737240075613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19849624060150375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21588785046728973</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23308550185873605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25009242144177446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26691176470588235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28354661791590491</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31627486437613017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33237410071942441</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34830053667262967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36405693950177936</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37964601769911505</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39507042253521124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41033274956217158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42543554006968637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44038128249566721</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45517241379310347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'27 NPT 3-160 pressure'!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1B4-4E72-AB41-13E3EB1CE811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Alt voltage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5138040861150245E-2"/>
+                  <c:y val="0.55785645432698661"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="31750">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'27 NPT 3-160 pressure'!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.17401725790987535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26573938506588574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34946612987922276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42619926199261998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49677990661729182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56191950464396279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62222387837233561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67821212992239144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73033162203413327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77896995708154493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82446463335496423</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86711088760372135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90716810922833102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94486512068149553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98040455120101144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0139664804469275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0457114903793889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.075783234546994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1043106115293388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1314096119042831</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1571848945561549</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1817311374952124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2051341999438885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2274721257539756</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.248816012867483</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2692307692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'27 NPT 3-160 pressure'!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1B4-4E72-AB41-13E3EB1CE811}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4510,11 +5229,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VDO 360-081-029-001K pressure'!$G$1</c:f>
+              <c:f>'Random oil sensor'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pressure (Bar)</c:v>
+                  <c:v>Temperature (°C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4542,14 +5261,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36353874409432813"/>
-                  <c:y val="4.713518893226832E-2"/>
+                  <c:x val="4.7691864078829353E-2"/>
+                  <c:y val="-0.376054005116361"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4586,174 +5305,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'VDO 360-081-029-001K pressure'!$D$2:$D$27</c:f>
+              <c:f>'Random oil sensor'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.4768188330655182E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8114913847119962E-2</c:v>
+                  <c:v>6.8076682642217126E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1037660173810228E-2</c:v>
+                  <c:v>0.16824100640035308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10354732012274438</c:v>
+                  <c:v>0.25150115473441109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12565441308220077</c:v>
+                  <c:v>0.34286752240251878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14736910085438207</c:v>
+                  <c:v>0.4794871794871795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16870120269353336</c:v>
+                  <c:v>0.59508196721311479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18966020959120816</c:v>
+                  <c:v>0.72411101474414552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21025529785228814</c:v>
+                  <c:v>0.92143528674396746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23049534200249755</c:v>
+                  <c:v>1.0926421404682274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25038892706550159</c:v>
+                  <c:v>1.2885263535317317</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26994436024521756</c:v>
+                  <c:v>1.5982943276477588</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28916968204668381</c:v>
+                  <c:v>1.8775862068965516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30807267686671391</c:v>
+                  <c:v>2.2098631429919768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32666088308359181</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.34494160267323537</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.36292191037755056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.38060866244911695</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.39800850499486562</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.41512788194003886</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.43197304263243852</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.44855004910577012</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46486478301978196</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.48092295229384907</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49673009744968083</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.51229159767792332</c:v>
+                  <c:v>2.7651539708265802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'VDO 360-081-029-001K pressure'!$G$2:$G$27</c:f>
+              <c:f>'Random oil sensor'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,16 +5414,13 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-33E0-4586-AF09-AA0F096AA57E}"/>
+              <c16:uniqueId val="{00000001-FC84-41D0-A930-E3426F55DA83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Alt voltage</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4794,14 +5444,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5138040861150245E-2"/>
-                  <c:y val="0.55785645432698661"/>
+                  <c:x val="0.16155004942814702"/>
+                  <c:y val="-0.67617752582772717"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4841,174 +5491,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'VDO 360-081-029-001K pressure'!$F$2:$F$27</c:f>
+              <c:f>'Random oil sensor'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.18434298150362502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29343916050489754</c:v>
+                  <c:v>4.6502930938547321E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39088633772254977</c:v>
+                  <c:v>0.11385181463931243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47845366591027161</c:v>
+                  <c:v>0.1688848160157902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55756929959999479</c:v>
+                  <c:v>0.22830858097904969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6293987758766838</c:v>
+                  <c:v>0.31532958610117529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69490272572459988</c:v>
+                  <c:v>0.38729388942774007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75488000730277716</c:v>
+                  <c:v>0.46588038350327182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81000038379599237</c:v>
+                  <c:v>0.58264668263947683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86082958779805296</c:v>
+                  <c:v>0.68075393066868728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90784876433800465</c:v>
+                  <c:v>0.78952445625037437</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95146971041290074</c:v>
+                  <c:v>0.9543786740164939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99204693439143343</c:v>
+                  <c:v>1.0959743824336687</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0298872834870005</c:v>
+                  <c:v>1.2563647893851069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0652576928623771</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0983914704596673</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.129493430504775</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1587441144609572</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1863032832405502</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.2123128233549263</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2368991786253869</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2601753954242314</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2822428512550998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3031927224329918</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3231072356782678</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3420607398523074</c:v>
+                  <c:v>1.5065505338363969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'VDO 360-081-029-001K pressure'!$G$2:$G$27</c:f>
+              <c:f>'Random oil sensor'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5016,7 +5600,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-33E0-4586-AF09-AA0F096AA57E}"/>
+              <c16:uniqueId val="{00000003-FC84-41D0-A930-E3426F55DA83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5225,7 +5809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Random oil sensor'!$G$1</c:f>
+              <c:f>'Bosch E36 coolant sensor'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5263,8 +5847,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7691864078829353E-2"/>
-                  <c:y val="-0.376054005116361"/>
+                  <c:x val="3.5234547115180995E-2"/>
+                  <c:y val="-0.47986147066810153"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5301,108 +5885,114 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Random oil sensor'!$D$2:$D$20</c:f>
+              <c:f>'Bosch E36 coolant sensor'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42896637264979065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8076682642217126E-2</c:v>
+                  <c:v>0.85400993128799241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16824100640035308</c:v>
+                  <c:v>1.046229935219928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25150115473441109</c:v>
+                  <c:v>1.2712457035133005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34286752240251878</c:v>
+                  <c:v>1.5256842762152292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4794871794871795</c:v>
+                  <c:v>1.7992718805317056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59508196721311479</c:v>
+                  <c:v>2.0786969705186626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72411101474414552</c:v>
+                  <c:v>2.3457389879151007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92143528674396746</c:v>
+                  <c:v>2.7917459626497454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0926421404682274</c:v>
+                  <c:v>2.9535847426323474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2885263535317317</c:v>
+                  <c:v>3.0739251277912709</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5982943276477588</c:v>
+                  <c:v>3.1573781258957561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8775862068965516</c:v>
+                  <c:v>3.214573891511705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2098631429919768</c:v>
+                  <c:v>3.2502859335714849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7651539708265802</c:v>
+                  <c:v>3.2717166179658337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2849060212042871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Random oil sensor'!$G$2:$G$20</c:f>
+              <c:f>'Bosch E36 coolant sensor'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>110.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>90.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>80.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>-9.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>-20.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-39.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,7 +6000,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC84-41D0-A930-E3426F55DA83}"/>
+              <c16:uniqueId val="{00000001-6046-4425-B7BF-912303B18D82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5446,8 +6036,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16155004942814702"/>
-                  <c:y val="-0.67617752582772717"/>
+                  <c:x val="0.21466134090070507"/>
+                  <c:y val="-0.73754440590189851"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5487,108 +6077,114 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Random oil sensor'!$F$2:$F$20</c:f>
+              <c:f>'Bosch E36 coolant sensor'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28340207439241838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6502930938547321E-2</c:v>
+                  <c:v>0.54320191926197003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11385181463931243</c:v>
+                  <c:v>0.65444415388042598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1688848160157902</c:v>
+                  <c:v>0.78007371656273927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22830858097904969</c:v>
+                  <c:v>0.91649488702275506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31532958610117529</c:v>
+                  <c:v>1.0569161338085407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38729388942774007</c:v>
+                  <c:v>1.1940582198598417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46588038350327182</c:v>
+                  <c:v>1.3195730262490617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58264668263947683</c:v>
+                  <c:v>1.518009385853744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68075393066868728</c:v>
+                  <c:v>1.5867755033098563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78952445625037437</c:v>
+                  <c:v>1.6368504461180056</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9543786740164939</c:v>
+                  <c:v>1.6710602407853596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0959743824336687</c:v>
+                  <c:v>1.6942670340428037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2563647893851069</c:v>
+                  <c:v>1.7086594724564494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5065505338363969</c:v>
+                  <c:v>1.7172606482972572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7225409603660631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Random oil sensor'!$G$2:$G$20</c:f>
+              <c:f>'Bosch E36 coolant sensor'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>110.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>90.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>80.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>-9.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>-20.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-39.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5596,7 +6192,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC84-41D0-A930-E3426F55DA83}"/>
+              <c16:uniqueId val="{00000003-6046-4425-B7BF-912303B18D82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5805,11 +6401,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Bosch E36 coolant sensor'!$G$1</c:f>
+              <c:f>'VDO 360-081-029-001K pressure'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Temperature (°C)</c:v>
+                  <c:v>Pressure (Bar)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5837,14 +6433,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5234547115180995E-2"/>
-                  <c:y val="-0.47986147066810153"/>
+                  <c:x val="0.36353874409432813"/>
+                  <c:y val="4.713518893226832E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5881,114 +6477,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Bosch E36 coolant sensor'!$D$2:$D$20</c:f>
+              <c:f>'VDO 360-081-029-001K pressure'!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.42896637264979065</c:v>
+                  <c:v>3.4768188330655182E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85400993128799241</c:v>
+                  <c:v>5.8114913847119962E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.046229935219928</c:v>
+                  <c:v>8.1037660173810228E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2712457035133005</c:v>
+                  <c:v>0.10354732012274438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5256842762152292</c:v>
+                  <c:v>0.12565441308220077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7992718805317056</c:v>
+                  <c:v>0.14736910085438207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0786969705186626</c:v>
+                  <c:v>0.16870120269353336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3457389879151007</c:v>
+                  <c:v>0.18966020959120816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7917459626497454</c:v>
+                  <c:v>0.21025529785228814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9535847426323474</c:v>
+                  <c:v>0.23049534200249755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0739251277912709</c:v>
+                  <c:v>0.25038892706550159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1573781258957561</c:v>
+                  <c:v>0.26994436024521756</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.214573891511705</c:v>
+                  <c:v>0.28916968204668381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2502859335714849</c:v>
+                  <c:v>0.30807267686671391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2717166179658337</c:v>
+                  <c:v>0.32666088308359181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2849060212042871</c:v>
+                  <c:v>0.34494160267323537</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36292191037755056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38060866244911695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39800850499486562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41512788194003886</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43197304263243852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44855004910577012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46486478301978196</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48092295229384907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49673009744968083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51229159767792332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bosch E36 coolant sensor'!$G$2:$G$20</c:f>
+              <c:f>'VDO 360-081-029-001K pressure'!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>142.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.25</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.75</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.25</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.25</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.75</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-20.25</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>-39.75</c:v>
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5996,13 +6652,16 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6046-4425-B7BF-912303B18D82}"/>
+              <c16:uniqueId val="{00000001-33E0-4586-AF09-AA0F096AA57E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Alt voltage</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -6026,14 +6685,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21466134090070507"/>
-                  <c:y val="-0.73754440590189851"/>
+                  <c:x val="2.5138040861150245E-2"/>
+                  <c:y val="0.55785645432698661"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6073,114 +6732,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Bosch E36 coolant sensor'!$F$2:$F$20</c:f>
+              <c:f>'VDO 360-081-029-001K pressure'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.28340207439241838</c:v>
+                  <c:v>0.18434298150362502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54320191926197003</c:v>
+                  <c:v>0.29343916050489754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65444415388042598</c:v>
+                  <c:v>0.39088633772254977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78007371656273927</c:v>
+                  <c:v>0.47845366591027161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91649488702275506</c:v>
+                  <c:v>0.55756929959999479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0569161338085407</c:v>
+                  <c:v>0.6293987758766838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1940582198598417</c:v>
+                  <c:v>0.69490272572459988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3195730262490617</c:v>
+                  <c:v>0.75488000730277716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.518009385853744</c:v>
+                  <c:v>0.81000038379599237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5867755033098563</c:v>
+                  <c:v>0.86082958779805296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6368504461180056</c:v>
+                  <c:v>0.90784876433800465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6710602407853596</c:v>
+                  <c:v>0.95146971041290074</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6942670340428037</c:v>
+                  <c:v>0.99204693439143343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7086594724564494</c:v>
+                  <c:v>1.0298872834870005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7172606482972572</c:v>
+                  <c:v>1.0652576928623771</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7225409603660631</c:v>
+                  <c:v>1.0983914704596673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.129493430504775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1587441144609572</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1863032832405502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2123128233549263</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2368991786253869</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2601753954242314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2822428512550998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3031927224329918</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3231072356782678</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3420607398523074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bosch E36 coolant sensor'!$G$2:$G$20</c:f>
+              <c:f>'VDO 360-081-029-001K pressure'!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>142.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.25</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.75</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.25</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.25</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.75</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-20.25</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>-39.75</c:v>
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6188,7 +6907,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6046-4425-B7BF-912303B18D82}"/>
+              <c16:uniqueId val="{00000003-33E0-4586-AF09-AA0F096AA57E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6373,6 +7092,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6733,6 +7492,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11419,6 +12694,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD28F23-360C-4800-89AA-D8AEE05DD9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11644,7 +12962,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11652,7 +12970,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745872AC-2635-4532-9C64-A8AA52A5AECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9A0F4F-E2E7-4948-8683-42F688E9542D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11695,7 +13013,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9A0F4F-E2E7-4948-8683-42F688E9542D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3EA79E-CE38-49A0-B3A6-FC20A7ADE0BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11730,7 +13048,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11738,7 +13056,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3EA79E-CE38-49A0-B3A6-FC20A7ADE0BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745872AC-2635-4532-9C64-A8AA52A5AECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13291,11 +14609,1739 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58B430-22D6-4B3A-9457-9E587F0FF4F9}">
+  <dimension ref="A1:AD54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <f t="shared" ref="D2:D27" si="0">($B$2*C2)/($A$2+C2)</f>
+        <v>3.2673267326732675E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*($A$6+$A$7)/(C2+$A$6+$A$7)</f>
+        <v>9.9688473520249214</v>
+      </c>
+      <c r="F2" s="11">
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.17401725790987535</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4">
+        <f>D2</f>
+        <v>3.2673267326732675E-2</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="12">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>F2</f>
+        <v>0.17401725790987535</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="12">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10">
+        <f>($B$2*C3)/($A$2+C3)</f>
+        <v>5.1968503937007873E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E27" si="1">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <v>15.920398009950249</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F27" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.26573938506588574</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T27" si="3">D3</f>
+        <v>5.1968503937007873E-2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W27" si="4">G3</f>
+        <v>0.4</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z27" si="5">F3</f>
+        <v>0.26573938506588574</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="12">
+        <f t="shared" ref="AC3:AC27" si="6">G3</f>
+        <v>0.4</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1037181996086093E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>21.849782743637491</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="2"/>
+        <v>0.34946612987922276</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1037181996086093E-2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.34946612987922276</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>8.9883268482490258E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>27.757125154894673</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.42619926199261998</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.9883268482490258E-2</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.42619926199261998</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2200</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6" s="9">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10851063829787233</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>33.642547928262211</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.49677990661729182</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10851063829787233</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.49677990661729182</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>39.506172839506171</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56191950464396279</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.56191950464396279</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10">
+        <f>($B$2*C8)/($A$2+C8)</f>
+        <v>0.14512428298279156</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>45.348120764017253</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.62222387837233561</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14512428298279156</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.62222387837233561</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="12">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16311787072243344</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>51.168511685116854</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67821212992239144</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16311787072243344</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.67821212992239144</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="6"/>
+        <v>2.8</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18090737240075613</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>56.967464702271329</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.73033162203413327</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18090737240075613</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.73033162203413327</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="12">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19849624060150375</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>62.745098039215684</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.77896995708154493</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.19849624060150375</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="5"/>
+        <v>0.77896995708154493</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="12">
+        <f t="shared" si="6"/>
+        <v>3.6</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>70</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21588785046728973</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>68.501529051987774</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.82446463335496423</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21588785046728973</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82446463335496423</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>76</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23308550185873605</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>74.236874236874243</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.86711088760372135</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23308550185873605</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86711088760372135</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="12">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>82</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25009242144177446</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>79.951249238269341</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90716810922833102</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25009242144177446</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.90716810922833102</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="6"/>
+        <v>4.8</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <v>88</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26691176470588235</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>85.644768856447683</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.94486512068149553</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26691176470588235</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94486512068149553</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="12">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.28354661791590491</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>91.317547055251978</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98040455120101144</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.28354661791590491</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="5"/>
+        <v>0.98040455120101144</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="12">
+        <f t="shared" si="6"/>
+        <v>5.6</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>96.969696969696969</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0139664804469275</v>
+      </c>
+      <c r="G17" s="9">
+        <v>6</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0139664804469275</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>106</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31627486437613017</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>102.60133091349063</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0457114903793889</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31627486437613017</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0457114903793889</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="12">
+        <f t="shared" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <v>112</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33237410071942441</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>108.21256038647343</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>1.075783234546994</v>
+      </c>
+      <c r="G19" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.33237410071942441</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="5"/>
+        <v>1.075783234546994</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="12">
+        <f t="shared" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <v>118</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34830053667262967</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>113.8034960819771</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1043106115293388</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34830053667262967</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1043106115293388</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="12">
+        <f t="shared" si="6"/>
+        <v>7.2</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <v>124</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36405693950177936</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>119.37424789410349</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1314096119042831</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.36405693950177936</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1314096119042831</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="12">
+        <f t="shared" si="6"/>
+        <v>7.6</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <v>130</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37964601769911505</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>124.92492492492492</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1571848945561549</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.37964601769911505</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1571848945561549</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <v>136</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.39507042253521124</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>130.45563549160673</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1817311374952124</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39507042253521124</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1817311374952124</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="12">
+        <f t="shared" si="6"/>
+        <v>8.4</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <v>142</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41033274956217158</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>135.96648713345303</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2051341999438885</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.41033274956217158</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2051341999438885</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="12">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <v>148</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42543554006968637</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>141.45758661887695</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2274721257539756</v>
+      </c>
+      <c r="G25" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.42543554006968637</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2274721257539756</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="12">
+        <f t="shared" si="6"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <v>154</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44038128249566721</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>146.92903995229577</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
+        <v>1.248816012867483</v>
+      </c>
+      <c r="G26" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.44038128249566721</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="12">
+        <f>G26</f>
+        <v>9.6</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="5"/>
+        <v>1.248816012867483</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="12">
+        <f t="shared" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <v>160</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45517241379310347</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="1"/>
+        <v>152.38095238095238</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2692307692307692</v>
+      </c>
+      <c r="G27" s="9">
+        <v>10</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.45517241379310347</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="12">
+        <f>G27</f>
+        <v>10</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2692307692307692</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T54"/>
+      <c r="U54">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Z54"/>
+      <c r="AA54">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1" xr:uid="{12CAAA14-9E6E-407B-8899-5A60D2B6B020}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D3F8C9-F529-4B67-B412-6C7AF16A7302}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -13371,7 +16417,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <f t="shared" ref="D2:D27" si="0">($B$2*C2)/($A$2+C2)</f>
+        <f t="shared" ref="D2:D15" si="0">($B$2*C2)/($A$2+C2)</f>
         <v>0.32702699756513537</v>
       </c>
       <c r="E2" s="9">
@@ -13436,11 +16482,11 @@
         <v>0.61925258982513487</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E27" si="1">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <f t="shared" ref="E3:E15" si="1">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
         <v>20.863085998137226</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F27" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <f t="shared" ref="F3:F15" si="2">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
         <v>0.33602221634488233</v>
       </c>
       <c r="G3" s="9">
@@ -16125,7 +19171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487D20AD-E949-4065-A9BD-AAFD2AE8E8B5}">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -22821,1760 +25867,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E139F-BBA8-45E6-8ABD-24B09CD87AA1}">
-  <dimension ref="A1:AD54"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>3.3</v>
-      </c>
-      <c r="C2" s="9">
-        <f>-0.3682*G2^2 + 36.465*G2 + 10.648</f>
-        <v>10.648</v>
-      </c>
-      <c r="D2" s="10">
-        <f t="shared" ref="D2:D27" si="0">($B$2*C2)/($A$2+C2)</f>
-        <v>3.4768188330655182E-2</v>
-      </c>
-      <c r="E2" s="9">
-        <f>C2*($A$6+$A$7)/(C2+$A$6+$A$7)</f>
-        <v>10.612686286382063</v>
-      </c>
-      <c r="F2" s="11">
-        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
-        <v>0.18434298150362502</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="4">
-        <f>D2</f>
-        <v>3.4768188330655182E-2</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="3">
-        <f>G2</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="4">
-        <f>F2</f>
-        <v>0.18434298150362502</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="3">
-        <f>G2</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C27" si="1">-0.3682*G3^2 + 36.465*G3 + 10.648</f>
-        <v>17.926272000000001</v>
-      </c>
-      <c r="D3" s="10">
-        <f>($B$2*C3)/($A$2+C3)</f>
-        <v>5.8114913847119962E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E27" si="2">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
-        <v>17.826409168892233</v>
-      </c>
-      <c r="F3" s="11">
-        <f t="shared" ref="F3:F27" si="3">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
-        <v>0.29343916050489754</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" ref="T3:T27" si="4">D3</f>
-        <v>5.8114913847119962E-2</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="3">
-        <f t="shared" ref="W3:W27" si="5">G3</f>
-        <v>0.2</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z27" si="6">F3</f>
-        <v>0.29343916050489754</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC27" si="7">G3</f>
-        <v>0.2</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="1"/>
-        <v>25.175088000000002</v>
-      </c>
-      <c r="D4" s="10">
-        <f t="shared" si="0"/>
-        <v>8.1037660173810228E-2</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="2"/>
-        <v>24.978576170869889</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" si="3"/>
-        <v>0.39088633772254977</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="4"/>
-        <v>8.1037660173810228E-2</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="4">
-        <f t="shared" si="6"/>
-        <v>0.39088633772254977</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" si="1"/>
-        <v>32.394447999999997</v>
-      </c>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10354732012274438</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="2"/>
-        <v>32.06979694700923</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="3"/>
-        <v>0.47845366591027161</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.10354732012274438</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="4">
-        <f t="shared" si="6"/>
-        <v>0.47845366591027161</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2200</v>
-      </c>
-      <c r="B6">
-        <v>120</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="1"/>
-        <v>39.584352000000003</v>
-      </c>
-      <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12565441308220077</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="2"/>
-        <v>39.100672381566071</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="3"/>
-        <v>0.55756929959999479</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="4"/>
-        <v>0.12565441308220077</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="4">
-        <f t="shared" si="6"/>
-        <v>0.55756929959999479</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="1"/>
-        <v>46.744799999999998</v>
-      </c>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14736910085438207</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="2"/>
-        <v>46.071794740381193</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="3"/>
-        <v>0.6293987758766838</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14736910085438207</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="4">
-        <f t="shared" si="6"/>
-        <v>0.6293987758766838</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C8" s="9">
-        <f t="shared" si="1"/>
-        <v>53.875792000000004</v>
-      </c>
-      <c r="D8" s="10">
-        <f>($B$2*C8)/($A$2+C8)</f>
-        <v>0.16870120269353336</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="2"/>
-        <v>52.983747819713955</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="3"/>
-        <v>0.69490272572459988</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="4"/>
-        <v>0.16870120269353336</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="4">
-        <f t="shared" si="6"/>
-        <v>0.69490272572459988</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C9" s="9">
-        <f t="shared" si="1"/>
-        <v>60.977328</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18966020959120816</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="2"/>
-        <v>59.837107091963198</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>0.75488000730277716</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18966020959120816</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="6"/>
-        <v>0.75488000730277716</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C10" s="9">
-        <f t="shared" si="1"/>
-        <v>68.049408000000014</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>0.21025529785228814</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="2"/>
-        <v>66.632439848351297</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="3"/>
-        <v>0.81000038379599237</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="4"/>
-        <v>0.21025529785228814</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="6"/>
-        <v>0.81000038379599237</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
-        <f t="shared" si="1"/>
-        <v>75.092032000000017</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>0.23049534200249755</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="2"/>
-        <v>73.370305338644002</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="3"/>
-        <v>0.86082958779805296</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="4"/>
-        <v>0.23049534200249755</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.86082958779805296</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
-        <f t="shared" si="1"/>
-        <v>82.105199999999996</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.25038892706550159</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="2"/>
-        <v>80.051254907977963</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="3"/>
-        <v>0.90784876433800465</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.25038892706550159</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="6"/>
-        <v>0.90784876433800465</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C13" s="9">
-        <f t="shared" si="1"/>
-        <v>89.088912000000008</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26994436024521756</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="2"/>
-        <v>86.675832130864563</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="3"/>
-        <v>0.95146971041290074</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="4"/>
-        <v>0.26994436024521756</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="6"/>
-        <v>0.95146971041290074</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C14" s="9">
-        <f t="shared" si="1"/>
-        <v>96.043168000000009</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.28916968204668381</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="2"/>
-        <v>93.24457294243787</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99204693439143343</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="4"/>
-        <v>0.28916968204668381</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.99204693439143343</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="7"/>
-        <v>2.4</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C15" s="9">
-        <f t="shared" si="1"/>
-        <v>102.96796800000001</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30807267686671391</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="2"/>
-        <v>99.758005767012051</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>1.0298872834870005</v>
-      </c>
-      <c r="G15" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="4"/>
-        <v>0.30807267686671391</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0298872834870005</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="7"/>
-        <v>2.6</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C16" s="9">
-        <f t="shared" si="1"/>
-        <v>109.86331199999999</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>0.32666088308359181</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="2"/>
-        <v>106.21665164401205</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="3"/>
-        <v>1.0652576928623771</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="4"/>
-        <v>0.32666088308359181</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0652576928623771</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="7"/>
-        <v>2.8</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C17" s="9">
-        <f t="shared" si="1"/>
-        <v>116.72920000000001</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.34494160267323537</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="2"/>
-        <v>112.62102435133986</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="3"/>
-        <v>1.0983914704596673</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="4"/>
-        <v>0.34494160267323537</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0983914704596673</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C18" s="9">
-        <f>-0.3682*G18^2 + 36.465*G18 + 10.648</f>
-        <v>123.56563200000001</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.36292191037755056</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="2"/>
-        <v>118.971630526236</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="3"/>
-        <v>1.129493430504775</v>
-      </c>
-      <c r="G18" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="4"/>
-        <v>0.36292191037755056</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="5"/>
-        <v>3.2</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" si="6"/>
-        <v>1.129493430504775</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="7"/>
-        <v>3.2</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
-        <f t="shared" si="1"/>
-        <v>130.37260800000001</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>0.38060866244911695</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="2"/>
-        <v>125.26896978369577</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>1.1587441144609572</v>
-      </c>
-      <c r="G19" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="4"/>
-        <v>0.38060866244911695</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="4">
-        <f t="shared" si="6"/>
-        <v>1.1587441144609572</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C20" s="9">
-        <f t="shared" si="1"/>
-        <v>137.15012800000002</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>0.39800850499486562</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="2"/>
-        <v>131.51353483249707</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="3"/>
-        <v>1.1863032832405502</v>
-      </c>
-      <c r="G20" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="4"/>
-        <v>0.39800850499486562</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="4">
-        <f t="shared" si="6"/>
-        <v>1.1863032832405502</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C21" s="9">
-        <f t="shared" si="1"/>
-        <v>143.89819199999999</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>0.41512788194003886</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="2"/>
-        <v>137.70581158889541</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2123128233549263</v>
-      </c>
-      <c r="G21" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="4"/>
-        <v>0.41512788194003886</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2123128233549263</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="7"/>
-        <v>3.8</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C22" s="9">
-        <f t="shared" si="1"/>
-        <v>150.61680000000001</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>0.43197304263243852</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="2"/>
-        <v>143.84627928804036</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2368991786253869</v>
-      </c>
-      <c r="G22" s="9">
-        <v>4</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="4"/>
-        <v>0.43197304263243852</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2368991786253869</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C23" s="9">
-        <f t="shared" si="1"/>
-        <v>157.30595200000002</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>0.44855004910577012</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="2"/>
-        <v>149.93541059316598</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2601753954242314</v>
-      </c>
-      <c r="G23" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="4"/>
-        <v>0.44855004910577012</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="5"/>
-        <v>4.2</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2601753954242314</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C24" s="9">
-        <f t="shared" si="1"/>
-        <v>163.96564800000002</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>0.46486478301978196</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="2"/>
-        <v>155.97367170260711</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2822428512550998</v>
-      </c>
-      <c r="G24" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="4"/>
-        <v>0.46486478301978196</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2822428512550998</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" si="7"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C25" s="9">
-        <f t="shared" si="1"/>
-        <v>170.595888</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>0.48092295229384907</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="2"/>
-        <v>161.96152245469068</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3031927224329918</v>
-      </c>
-      <c r="G25" s="9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="4"/>
-        <v>0.48092295229384907</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3031927224329918</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C26" s="9">
-        <f t="shared" si="1"/>
-        <v>177.19667200000001</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
-        <v>0.49673009744968083</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="2"/>
-        <v>167.8994164305513</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3231072356782678</v>
-      </c>
-      <c r="G26" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="4"/>
-        <v>0.49673009744968083</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3231072356782678</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C27" s="9">
-        <f t="shared" si="1"/>
-        <v>183.768</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>0.51229159767792332</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="2"/>
-        <v>173.78780105491865</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3420607398523074</v>
-      </c>
-      <c r="G27" s="9">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="4"/>
-        <v>0.51229159767792332</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3420607398523074</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC27" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="2"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="20:27" x14ac:dyDescent="0.25">
-      <c r="T54"/>
-      <c r="U54">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="Z54"/>
-      <c r="AA54">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" xr:uid="{1F01AA02-3B52-4737-9968-98661771F6C4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE4B90D-5A9B-4CE5-8333-40548B1E1EE1}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
@@ -26033,7 +27325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3352653-DA5C-4691-9AF3-58B474D2357C}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
@@ -27509,4 +28801,1758 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080E139F-BBA8-45E6-8ABD-24B09CD87AA1}">
+  <dimension ref="A1:AD54"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2" s="9">
+        <f>-0.3682*G2^2 + 36.465*G2 + 10.648</f>
+        <v>10.648</v>
+      </c>
+      <c r="D2" s="10">
+        <f t="shared" ref="D2:D27" si="0">($B$2*C2)/($A$2+C2)</f>
+        <v>3.4768188330655182E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*($A$6+$A$7)/(C2+$A$6+$A$7)</f>
+        <v>10.612686286382063</v>
+      </c>
+      <c r="F2" s="11">
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>0.18434298150362502</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4">
+        <f>D2</f>
+        <v>3.4768188330655182E-2</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="3">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>F2</f>
+        <v>0.18434298150362502</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C27" si="1">-0.3682*G3^2 + 36.465*G3 + 10.648</f>
+        <v>17.926272000000001</v>
+      </c>
+      <c r="D3" s="10">
+        <f>($B$2*C3)/($A$2+C3)</f>
+        <v>5.8114913847119962E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E27" si="2">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <v>17.826409168892233</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F27" si="3">(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>0.29343916050489754</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T27" si="4">D3</f>
+        <v>5.8114913847119962E-2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W27" si="5">G3</f>
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z27" si="6">F3</f>
+        <v>0.29343916050489754</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" ref="AC3:AC27" si="7">G3</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>25.175088000000002</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1037660173810228E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="2"/>
+        <v>24.978576170869889</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="3"/>
+        <v>0.39088633772254977</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1037660173810228E-2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="6"/>
+        <v>0.39088633772254977</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>32.394447999999997</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10354732012274438</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="2"/>
+        <v>32.06979694700923</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="3"/>
+        <v>0.47845366591027161</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10354732012274438</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="6"/>
+        <v>0.47845366591027161</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2200</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>39.584352000000003</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12565441308220077</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="2"/>
+        <v>39.100672381566071</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="3"/>
+        <v>0.55756929959999479</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.12565441308220077</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.55756929959999479</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>46.744799999999998</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14736910085438207</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
+        <v>46.071794740381193</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6293987758766838</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.14736910085438207</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.6293987758766838</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>53.875792000000004</v>
+      </c>
+      <c r="D8" s="10">
+        <f>($B$2*C8)/($A$2+C8)</f>
+        <v>0.16870120269353336</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>52.983747819713955</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="3"/>
+        <v>0.69490272572459988</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16870120269353336</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.69490272572459988</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>60.977328</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18966020959120816</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>59.837107091963198</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="3"/>
+        <v>0.75488000730277716</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.18966020959120816</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75488000730277716</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>68.049408000000014</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21025529785228814</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
+        <v>66.632439848351297</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="3"/>
+        <v>0.81000038379599237</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21025529785228814</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.81000038379599237</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>75.092032000000017</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23049534200249755</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
+        <v>73.370305338644002</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="3"/>
+        <v>0.86082958779805296</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23049534200249755</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.86082958779805296</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>82.105199999999996</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25038892706550159</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="2"/>
+        <v>80.051254907977963</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.90784876433800465</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25038892706550159</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.90784876433800465</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>89.088912000000008</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26994436024521756</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
+        <v>86.675832130864563</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="3"/>
+        <v>0.95146971041290074</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26994436024521756</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.95146971041290074</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>96.043168000000009</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.28916968204668381</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="2"/>
+        <v>93.24457294243787</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99204693439143343</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.28916968204668381</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="6"/>
+        <v>0.99204693439143343</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>102.96796800000001</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30807267686671391</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="2"/>
+        <v>99.758005767012051</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0298872834870005</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.30807267686671391</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0298872834870005</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>109.86331199999999</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32666088308359181</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
+        <v>106.21665164401205</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0652576928623771</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32666088308359181</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0652576928623771</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>116.72920000000001</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34494160267323537</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
+        <v>112.62102435133986</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0983914704596673</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34494160267323537</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0983914704596673</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <f>-0.3682*G18^2 + 36.465*G18 + 10.648</f>
+        <v>123.56563200000001</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36292191037755056</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="2"/>
+        <v>118.971630526236</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="3"/>
+        <v>1.129493430504775</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36292191037755056</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="6"/>
+        <v>1.129493430504775</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>130.37260800000001</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38060866244911695</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="2"/>
+        <v>125.26896978369577</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1587441144609572</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38060866244911695</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1587441144609572</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>137.15012800000002</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.39800850499486562</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
+        <v>131.51353483249707</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1863032832405502</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39800850499486562</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1863032832405502</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>143.89819199999999</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41512788194003886</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="2"/>
+        <v>137.70581158889541</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2123128233549263</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.41512788194003886</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2123128233549263</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="7"/>
+        <v>3.8</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>150.61680000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43197304263243852</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="2"/>
+        <v>143.84627928804036</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2368991786253869</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.43197304263243852</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2368991786253869</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>157.30595200000002</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44855004910577012</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="2"/>
+        <v>149.93541059316598</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2601753954242314</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.44855004910577012</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2601753954242314</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>163.96564800000002</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46486478301978196</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="2"/>
+        <v>155.97367170260711</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2822428512550998</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.46486478301978196</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2822428512550998</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>170.595888</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.48092295229384907</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="2"/>
+        <v>161.96152245469068</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3031927224329918</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.48092295229384907</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3031927224329918</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="3">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>177.19667200000001</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.49673009744968083</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="2"/>
+        <v>167.8994164305513</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3231072356782678</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.49673009744968083</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3231072356782678</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>183.768</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51229159767792332</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="2"/>
+        <v>173.78780105491865</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3420607398523074</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51229159767792332</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3420607398523074</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T54"/>
+      <c r="U54">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Z54"/>
+      <c r="AA54">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1" xr:uid="{1F01AA02-3B52-4737-9968-98661771F6C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/documents/useful/temperature sensor converter.xlsx
+++ b/documents/useful/temperature sensor converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programming\gauge.s-sorek.uk\documents\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6F1C9-9C57-40E4-BD17-A069C95D62F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D21709-1D4D-44B1-95DC-63C9F639A667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="-15" windowWidth="21555" windowHeight="21135" firstSheet="7" activeTab="9" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
+    <workbookView xWindow="-120" yWindow="-15" windowWidth="30495" windowHeight="21135" firstSheet="7" activeTab="11" xr2:uid="{B7E37433-98C9-4AC7-A732-162F4F4FFF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosch 0280130026 oil temp" sheetId="11" r:id="rId1"/>
@@ -23,18 +23,31 @@
     <sheet name="Bosch E36 coolant sensor" sheetId="16" r:id="rId8"/>
     <sheet name="VDO 360-081-029-001K pressure" sheetId="9" r:id="rId9"/>
     <sheet name="27 NPT 3-160 pressure" sheetId="18" r:id="rId10"/>
+    <sheet name="Beta (osculati)" sheetId="19" r:id="rId11"/>
+    <sheet name="Bosch E36 coolant sensor (2)" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="34">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -119,6 +132,24 @@
   <si>
     <t>https://www.prosportgauges.co.uk/shop/oil-pressure-sensor-3-160-ohms</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T0 (°C)</t>
+  </si>
+  <si>
+    <t>R (Ohm)</t>
+  </si>
+  <si>
+    <t>B (K)</t>
+  </si>
+  <si>
+    <t>P (Ohm)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +204,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,12 +234,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -219,6 +378,46 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -240,7 +439,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -859,7 +1058,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1571,10 +1770,1335 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Temp sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Beta (osculati)'!$A$7:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Beta (osculati)'!$B$7:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>162.70570122617875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.94661336106805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.17146120914816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.91601436410565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.493723678017204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.77967224545398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.200422673284493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.425728358465676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.248759010494325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.531763738385052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.178569432784514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.119472728013761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.302392856418692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.687417972539663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.243298385908872</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.945110491530329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.772653009122678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.709316998419069</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.741271433122506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.856864348117483</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.046174571623965</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.300670737318001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.612948072577126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.976522456330883</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.385667232743458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.835282336065518</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.320788093115539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.838038042164669</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.383246509841058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.952927697270297</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.543843760225059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.152959904599129</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.777404911952431</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.414435797205442</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.061405507256666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.715732712617523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.374872835437941</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.036289503204216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.69742562074714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.355673213185241</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.008341104398937</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.652619350391774</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.285539129341487</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9039264769240276</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5043478113066726</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0830445637105299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6358533365022367</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1581067262493434</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6445080777326098</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.088970662157692</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.51559241654928201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.1775477564728476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.9069210617709587</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.7159235818964476</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.6197009771478861</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-9.6374294493601838</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-11.793974535950554</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-14.122502737830132</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-16.668795322814162</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-19.498810814754705</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-22.712991819120049</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-26.476219372872094</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-31.090168576091429</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-37.211298628077486</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-46.839474542638158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B70C-4FEA-9BBC-6A6FE44F7C08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141810944"/>
+        <c:axId val="141811904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141810944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141811904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141811904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141810944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bosch E36 coolant sensor (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5234547115180995E-2"/>
+                  <c:y val="-0.47986147066810153"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>= -8.9368x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> + 51.392x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> - 143.25x + 235.45</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="31750">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bosch E36 coolant sensor (2)'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.8478832716810518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6792325056433408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4791044776119402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2550348321722606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0154534838458544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5352941176470589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3180180180180181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1217821782178219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95124555160142343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80566893424036268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bosch E36 coolant sensor (2)'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.222222222222229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.44444444444444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.55555555555556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.88888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B396-4861-B2AE-7353CC3ADF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21466134090070507"/>
+                  <c:y val="-0.73754440590189851"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="31750">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bosch E36 coolant sensor (2)'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5420504589321482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4692111482051089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3803324099722991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2775269904432627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1635518600992869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0433102081268582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92153487014881807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80558985483063561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69716576542979669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5999387880024486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51463371812316205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bosch E36 coolant sensor (2)'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.222222222222229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.44444444444444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.55555555555556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.88888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B396-4861-B2AE-7353CC3ADF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="646701888"/>
+        <c:axId val="789408384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="646701888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789408384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="789408384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646701888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2145,7 +3669,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2773,7 +4297,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3404,7 +4928,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4343,7 +5867,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5207,7 +6731,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5787,7 +7311,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6379,7 +7903,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7132,6 +8656,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8523,6 +10127,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12715,6 +15351,90 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD28F23-360C-4800-89AA-D8AEE05DD9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0D7FE4-B19C-5CBD-4C7D-E32D012023A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E408446B-F6D2-4267-8C23-17466C459213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13080,9 +15800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13120,7 +15840,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13226,7 +15946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13368,7 +16088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14613,7 +17333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58B430-22D6-4B3A-9457-9E587F0FF4F9}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -14779,7 +17499,7 @@
         <v>9</v>
       </c>
       <c r="W3" s="12">
-        <f t="shared" ref="W3:W27" si="4">G3</f>
+        <f t="shared" ref="W3:W25" si="4">G3</f>
         <v>0.4</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -16334,6 +19054,1473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBD1E45-E85C-4EE8-A288-6CA01A4E41AE}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="19"/>
+    <col min="3" max="4" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="21">
+        <v>990.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="21">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" ref="B7:B38" si="0">1/(1/$B$3 * LN((($B$4*A7)/($B$5-A7))/$B$2)+1/($B$1+273.15)) - 273.15</f>
+        <v>162.70570122617875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>130.94661336106805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
+        <v>114.17146120914816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="16">
+        <f t="shared" si="0"/>
+        <v>102.91601436410565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
+        <v>94.493723678017204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="16">
+        <f t="shared" si="0"/>
+        <v>87.77967224545398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" si="0"/>
+        <v>82.200422673284493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>77.425728358465676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>73.248759010494325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>69.531763738385052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>66.178569432784514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>63.119472728013761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>60.302392856418692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>57.687417972539663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>55.243298385908872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>52.945110491530329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>50.772653009122678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>48.709316998419069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>46.741271433122506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>44.856864348117483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>43.046174571623965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="0"/>
+        <v>41.300670737318001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="0"/>
+        <v>39.612948072577126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>37.976522456330883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="0"/>
+        <v>36.385667232743458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" si="0"/>
+        <v>34.835282336065518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="B33" s="16">
+        <f t="shared" si="0"/>
+        <v>33.320788093115539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="B34" s="16">
+        <f t="shared" si="0"/>
+        <v>31.838038042164669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="B35" s="16">
+        <f t="shared" si="0"/>
+        <v>30.383246509841058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="B36" s="16">
+        <f t="shared" si="0"/>
+        <v>28.952927697270297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="B37" s="16">
+        <f t="shared" si="0"/>
+        <v>27.543843760225059</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="B38" s="16">
+        <f t="shared" si="0"/>
+        <v>26.152959904599129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>1.65</v>
+      </c>
+      <c r="B39" s="16">
+        <f t="shared" ref="B39:B70" si="1">1/(1/$B$3 * LN((($B$4*A39)/($B$5-A39))/$B$2)+1/($B$1+273.15)) - 273.15</f>
+        <v>24.777404911952431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="B40" s="16">
+        <f t="shared" si="1"/>
+        <v>23.414435797205442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>1.75</v>
+      </c>
+      <c r="B41" s="16">
+        <f t="shared" si="1"/>
+        <v>22.061405507256666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="B42" s="16">
+        <f t="shared" si="1"/>
+        <v>20.715732712617523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>1.85</v>
+      </c>
+      <c r="B43" s="16">
+        <f t="shared" si="1"/>
+        <v>19.374872835437941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="B44" s="16">
+        <f t="shared" si="1"/>
+        <v>18.036289503204216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>1.95</v>
+      </c>
+      <c r="B45" s="16">
+        <f t="shared" si="1"/>
+        <v>16.69742562074714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>2</v>
+      </c>
+      <c r="B46" s="16">
+        <f t="shared" si="1"/>
+        <v>15.355673213185241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B47" s="16">
+        <f t="shared" si="1"/>
+        <v>14.008341104398937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B48" s="16">
+        <f t="shared" si="1"/>
+        <v>12.652619350391774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="B49" s="16">
+        <f t="shared" si="1"/>
+        <v>11.285539129341487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B50" s="16">
+        <f t="shared" si="1"/>
+        <v>9.9039264769240276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="B51" s="16">
+        <f t="shared" si="1"/>
+        <v>8.5043478113066726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B52" s="16">
+        <f t="shared" si="1"/>
+        <v>7.0830445637105299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>2.35</v>
+      </c>
+      <c r="B53" s="16">
+        <f t="shared" si="1"/>
+        <v>5.6358533365022367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1581067262493434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B55" s="16">
+        <f t="shared" si="1"/>
+        <v>2.6445080777326098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B56" s="16">
+        <f t="shared" si="1"/>
+        <v>1.088970662157692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.51559241654928201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="B58" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.1775477564728476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="B59" s="16">
+        <f t="shared" si="1"/>
+        <v>-3.9069210617709587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="B60" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.7159235818964476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="B61" s="16">
+        <f t="shared" si="1"/>
+        <v>-7.6197009771478861</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="B62" s="16">
+        <f t="shared" si="1"/>
+        <v>-9.6374294493601838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>2.85</v>
+      </c>
+      <c r="B63" s="16">
+        <f t="shared" si="1"/>
+        <v>-11.793974535950554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="B64" s="16">
+        <f t="shared" si="1"/>
+        <v>-14.122502737830132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>2.95</v>
+      </c>
+      <c r="B65" s="16">
+        <f t="shared" si="1"/>
+        <v>-16.668795322814162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>3</v>
+      </c>
+      <c r="B66" s="16">
+        <f t="shared" si="1"/>
+        <v>-19.498810814754705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>3.05</v>
+      </c>
+      <c r="B67" s="16">
+        <f t="shared" si="1"/>
+        <v>-22.712991819120049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="B68" s="16">
+        <f t="shared" si="1"/>
+        <v>-26.476219372872094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>3.15</v>
+      </c>
+      <c r="B69" s="16">
+        <f t="shared" si="1"/>
+        <v>-31.090168576091429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="B70" s="16">
+        <f t="shared" si="1"/>
+        <v>-37.211298628077486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="B71" s="18">
+        <f t="shared" ref="B71:B102" si="2">1/(1/$B$3 * LN((($B$4*A71)/($B$5-A71))/$B$2)+1/($B$1+273.15)) - 273.15</f>
+        <v>-46.839474542638158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A40C7-1308-4ADA-AD9B-7D7D84E0AB57}">
+  <dimension ref="A1:AD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6299</v>
+      </c>
+      <c r="D2" s="10">
+        <f>($B$2*C2)/($A$2+C2)</f>
+        <v>2.8478832716810518</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*($A$6+$A$7)/(C2+$A$6+$A$7)</f>
+        <v>2121.9917886093272</v>
+      </c>
+      <c r="F2" s="11">
+        <f>(($B$2*E2)/($B$6+E2))*$A$6/($A$6+$A$7)</f>
+        <v>1.5420504589321482</v>
+      </c>
+      <c r="G2" s="10">
+        <v>37.777777777777779</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4">
+        <f>D2</f>
+        <v>2.8478832716810518</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="12">
+        <f>G2</f>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>F2</f>
+        <v>1.5420504589321482</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="12">
+        <f>G2</f>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <v>4316</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D11" si="0">($B$2*C3)/($A$2+C3)</f>
+        <v>2.6792325056433408</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E12" si="1">C3*($A$6+$A$7)/(C3+$A$6+$A$7)</f>
+        <v>1837.5731772219265</v>
+      </c>
+      <c r="F3" s="11">
+        <f>(($B$2*E3)/($B$6+E3))*$A$6/($A$6+$A$7)</f>
+        <v>1.4692111482051089</v>
+      </c>
+      <c r="G3" s="10">
+        <v>48.888888888888886</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T12" si="2">D3</f>
+        <v>2.6792325056433408</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W12" si="3">G3</f>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z12" si="4">F3</f>
+        <v>1.4692111482051089</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="12">
+        <f t="shared" ref="AC3:AC12" si="5">G3</f>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3020</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4791044776119402</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>1553.6977491961416</v>
+      </c>
+      <c r="F4" s="11">
+        <f>(($B$2*E4)/($B$6+E4))*$A$6/($A$6+$A$7)</f>
+        <v>1.3803324099722991</v>
+      </c>
+      <c r="G4" s="10">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4791044776119402</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3803324099722991</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2158</v>
+      </c>
+      <c r="D5" s="10">
+        <f>($B$2*C5)/($A$2+C5)</f>
+        <v>2.2550348321722606</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>1288.8391190742814</v>
+      </c>
+      <c r="F5" s="11">
+        <f>(($B$2*E5)/($B$6+E5))*$A$6/($A$6+$A$7)</f>
+        <v>1.2775269904432627</v>
+      </c>
+      <c r="G5" s="10">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2550348321722606</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="3"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2775269904432627</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="5"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2200</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1569</v>
+      </c>
+      <c r="D6" s="10">
+        <f>($B$2*C6)/($A$2+C6)</f>
+        <v>2.0154534838458544</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>1052.7993289997903</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" ref="F6:F11" si="6">(($B$2*E6)/($B$6+E6))*$A$6/($A$6+$A$7)</f>
+        <v>1.1635518600992869</v>
+      </c>
+      <c r="G6" s="10">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0154534838458544</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="3"/>
+        <v>82.222222222222229</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1635518600992869</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" si="5"/>
+        <v>82.222222222222229</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1160</v>
+      </c>
+      <c r="D7" s="10">
+        <f>($B$2*C7)/($A$2+C7)</f>
+        <v>1.7722222222222221</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>851.37614678899081</v>
+      </c>
+      <c r="F7" s="11">
+        <f>(($B$2*E7)/($B$6+E7))*$A$6/($A$6+$A$7)</f>
+        <v>1.0433102081268582</v>
+      </c>
+      <c r="G7" s="10">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7722222222222221</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="3"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0433102081268582</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="12">
+        <f t="shared" si="5"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>870</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5352941176470589</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>684.02948402948402</v>
+      </c>
+      <c r="F8" s="11">
+        <f>(($B$2*E8)/($B$6+E8))*$A$6/($A$6+$A$7)</f>
+        <v>0.92153487014881807</v>
+      </c>
+      <c r="G8" s="10">
+        <v>104.44444444444444</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5352941176470589</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="3"/>
+        <v>104.44444444444444</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.92153487014881807</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="12">
+        <f t="shared" si="5"/>
+        <v>104.44444444444444</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>665</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3180180180180181</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>550.58214747736088</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="6"/>
+        <v>0.80558985483063561</v>
+      </c>
+      <c r="G9" s="10">
+        <v>115.55555555555556</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3180180180180181</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="3"/>
+        <v>115.55555555555556</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.80558985483063561</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="5"/>
+        <v>115.55555555555556</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>515</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1217821782178219</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>443.60699865410498</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="6"/>
+        <v>0.69716576542979669</v>
+      </c>
+      <c r="G10" s="10">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1217821782178219</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="3"/>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.69716576542979669</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="12">
+        <f t="shared" si="5"/>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>405</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.95124555160142343</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>359.50069348127602</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="6"/>
+        <v>0.5999387880024486</v>
+      </c>
+      <c r="G11" s="10">
+        <v>137.77777777777777</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.95124555160142343</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="3"/>
+        <v>137.77777777777777</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.5999387880024486</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="12">
+        <f t="shared" si="5"/>
+        <v>137.77777777777777</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>323</v>
+      </c>
+      <c r="D12" s="10">
+        <f>($B$2*C12)/($A$2+C12)</f>
+        <v>0.80566893424036268</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>293.38631847856942</v>
+      </c>
+      <c r="F12" s="11">
+        <f>(($B$2*E12)/($B$6+E12))*$A$6/($A$6+$A$7)</f>
+        <v>0.51463371812316205</v>
+      </c>
+      <c r="G12" s="10">
+        <v>148.88888888888889</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.80566893424036268</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="3"/>
+        <v>148.88888888888889</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51463371812316205</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="12">
+        <f t="shared" si="5"/>
+        <v>148.88888888888889</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="S13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="19" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="22" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="24" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="T24"/>
+      <c r="Z24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27330,7 +31517,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
